--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1727881.609064876</v>
+        <v>-1728548.378873202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4776011.485828766</v>
+        <v>4776011.485828768</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>31.34173053773824</v>
       </c>
       <c r="C11" t="n">
         <v>77.63931221777578</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.14324748235796</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.82970982401091</v>
+        <v>20.82970982401093</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>15.98790545990875</v>
       </c>
       <c r="U11" t="n">
-        <v>43.72142511517695</v>
+        <v>43.72142511517697</v>
       </c>
       <c r="V11" t="n">
-        <v>3.833571262228929</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.518197564746274</v>
+        <v>8.518197564746302</v>
       </c>
       <c r="U12" t="n">
-        <v>30.79946245864798</v>
+        <v>30.79946245864801</v>
       </c>
       <c r="V12" t="n">
-        <v>34.22071408184917</v>
+        <v>34.2207140818492</v>
       </c>
       <c r="W12" t="n">
-        <v>60.27637674345851</v>
+        <v>60.27637674345854</v>
       </c>
       <c r="X12" t="n">
-        <v>10.88470760591753</v>
+        <v>10.88470760591755</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.95607930047254</v>
+        <v>16.95607930047257</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.92096060047367</v>
+        <v>28.9209606004737</v>
       </c>
       <c r="T13" t="n">
-        <v>17.31156123695131</v>
+        <v>17.31156123695134</v>
       </c>
       <c r="U13" t="n">
         <v>77.63931221777578</v>
       </c>
       <c r="V13" t="n">
-        <v>38.68080835089683</v>
+        <v>38.68080835089685</v>
       </c>
       <c r="W13" t="n">
         <v>77.63931221777578</v>
       </c>
       <c r="X13" t="n">
-        <v>15.49124857468945</v>
+        <v>15.49124857468948</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.71306598061534</v>
+        <v>10.71306598061537</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.063155652915</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>34.14324748235795</v>
+        <v>34.14324748235794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>15.98790545990872</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>43.72142511517695</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>31.34173053773779</v>
       </c>
     </row>
     <row r="15">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.31508073560599</v>
+        <v>36.3150807356061</v>
       </c>
       <c r="C17" t="n">
-        <v>12.43333773895148</v>
+        <v>12.43333773895154</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.70675241940882</v>
+        <v>33.70675241940887</v>
       </c>
       <c r="F17" t="n">
-        <v>65.42708999778614</v>
+        <v>65.4270899977862</v>
       </c>
       <c r="G17" t="n">
         <v>77.63931221777578</v>
       </c>
       <c r="H17" t="n">
-        <v>9.132803132974679</v>
+        <v>9.132803132974736</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1243041835395502</v>
+        <v>0.124304183539607</v>
       </c>
       <c r="X17" t="n">
-        <v>22.01055465247879</v>
+        <v>22.01055465247885</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.51340777622255</v>
+        <v>44.51340777622261</v>
       </c>
     </row>
     <row r="18">
@@ -2558,22 +2558,22 @@
         <v>137.3221338599768</v>
       </c>
       <c r="D26" t="n">
-        <v>124.8887961210252</v>
+        <v>124.8887961210253</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5955485404341</v>
+        <v>158.5955485404342</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3158861188114</v>
+        <v>190.3158861188115</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9434401424499</v>
+        <v>205.94344014245</v>
       </c>
       <c r="H26" t="n">
         <v>134.021599254</v>
       </c>
       <c r="I26" t="n">
-        <v>27.68809079470896</v>
+        <v>27.68809079470902</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.37455313636192</v>
+        <v>14.37455313636198</v>
       </c>
       <c r="T26" t="n">
-        <v>9.532748772259737</v>
+        <v>9.532748772259794</v>
       </c>
       <c r="U26" t="n">
-        <v>37.26626842752796</v>
+        <v>37.26626842752802</v>
       </c>
       <c r="V26" t="n">
         <v>107.99642008795</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0131003045648</v>
+        <v>125.0131003045649</v>
       </c>
       <c r="X26" t="n">
         <v>146.8993507735041</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4022038972478</v>
+        <v>169.4022038972479</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>4.45007097608028</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1539698908331</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9464043982994</v>
+        <v>2.063040877097351</v>
       </c>
       <c r="U27" t="n">
-        <v>24.344305770999</v>
+        <v>237.2276692922011</v>
       </c>
       <c r="V27" t="n">
-        <v>27.76555739420019</v>
+        <v>27.76555739420024</v>
       </c>
       <c r="W27" t="n">
-        <v>53.82122005580953</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.429550918268546</v>
+        <v>4.429550918268603</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.50092261282356</v>
+        <v>81.04917179833606</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.46580391282469</v>
+        <v>22.46580391282475</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85640454930233</v>
+        <v>10.85640454930239</v>
       </c>
       <c r="U28" t="n">
-        <v>75.77291527230203</v>
+        <v>75.77291527230209</v>
       </c>
       <c r="V28" t="n">
-        <v>32.22565166324785</v>
+        <v>32.2256516632479</v>
       </c>
       <c r="W28" t="n">
-        <v>77.42734356813327</v>
+        <v>77.42734356813332</v>
       </c>
       <c r="X28" t="n">
-        <v>9.03609188704047</v>
+        <v>9.036091887040527</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.25790929296636</v>
+        <v>4.257909292966417</v>
       </c>
     </row>
     <row r="29">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2913,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.092952059052518</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3421142852749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>2.063040877097294</v>
       </c>
       <c r="U30" t="n">
-        <v>24.344305770999</v>
+        <v>237.2276692922011</v>
       </c>
       <c r="V30" t="n">
-        <v>27.76555739420019</v>
+        <v>98.31380657971147</v>
       </c>
       <c r="W30" t="n">
-        <v>250.5288148628184</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>4.429550918268546</v>
@@ -3047,7 +3047,7 @@
         <v>134.0215992539999</v>
       </c>
       <c r="I32" t="n">
-        <v>27.68809079470894</v>
+        <v>27.68809079470893</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>14.3745531363619</v>
       </c>
       <c r="T32" t="n">
-        <v>9.53274877225971</v>
+        <v>9.532748772259708</v>
       </c>
       <c r="U32" t="n">
         <v>37.26626842752793</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.35884785787259</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.90044977225978</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9464043982994</v>
+        <v>2.063040877097265</v>
       </c>
       <c r="U33" t="n">
-        <v>24.34430577099897</v>
+        <v>237.2276692922011</v>
       </c>
       <c r="V33" t="n">
-        <v>27.76555739420016</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>53.8212200558095</v>
+        <v>124.3694692413201</v>
       </c>
       <c r="X33" t="n">
         <v>4.429550918268518</v>
@@ -3269,13 +3269,13 @@
         <v>115.9840307102751</v>
       </c>
       <c r="D35" t="n">
-        <v>103.5506929713236</v>
+        <v>103.5506929713235</v>
       </c>
       <c r="E35" t="n">
         <v>137.2574453907324</v>
       </c>
       <c r="F35" t="n">
-        <v>168.9777829691098</v>
+        <v>168.9777829691097</v>
       </c>
       <c r="G35" t="n">
         <v>184.6053369927482</v>
@@ -3284,7 +3284,7 @@
         <v>112.6834961042983</v>
       </c>
       <c r="I35" t="n">
-        <v>6.349987645007303</v>
+        <v>6.349987645007275</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>15.92816527782631</v>
+        <v>15.92816527782628</v>
       </c>
       <c r="V35" t="n">
-        <v>86.6583169382483</v>
+        <v>86.65831693824828</v>
       </c>
       <c r="W35" t="n">
-        <v>103.6749971548632</v>
+        <v>103.6749971548631</v>
       </c>
       <c r="X35" t="n">
         <v>125.5612476238024</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.0641007475462</v>
+        <v>148.0641007475461</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.006202621297344</v>
+        <v>3.006202621297315</v>
       </c>
       <c r="V36" t="n">
-        <v>6.427454244498534</v>
+        <v>6.427454244498506</v>
       </c>
       <c r="W36" t="n">
-        <v>32.48311690610788</v>
+        <v>32.48311690610785</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.127700763123039</v>
+        <v>1.12770076312301</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.43481212260038</v>
+        <v>54.43481212260035</v>
       </c>
       <c r="V37" t="n">
-        <v>10.88754851354619</v>
+        <v>10.88754851354616</v>
       </c>
       <c r="W37" t="n">
-        <v>56.08924041843161</v>
+        <v>56.08924041843159</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>115.9840307102751</v>
       </c>
       <c r="D38" t="n">
-        <v>103.5506929713236</v>
+        <v>103.5506929713235</v>
       </c>
       <c r="E38" t="n">
         <v>137.2574453907324</v>
       </c>
       <c r="F38" t="n">
-        <v>168.9777829691098</v>
+        <v>168.9777829691097</v>
       </c>
       <c r="G38" t="n">
         <v>184.6053369927482</v>
@@ -3521,7 +3521,7 @@
         <v>112.6834961042983</v>
       </c>
       <c r="I38" t="n">
-        <v>6.349987645007303</v>
+        <v>6.349987645007275</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>15.92816527782631</v>
+        <v>15.92816527782628</v>
       </c>
       <c r="V38" t="n">
-        <v>86.6583169382483</v>
+        <v>86.65831693824828</v>
       </c>
       <c r="W38" t="n">
-        <v>103.6749971548632</v>
+        <v>103.6749971548631</v>
       </c>
       <c r="X38" t="n">
         <v>125.5612476238024</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.0641007475462</v>
+        <v>148.0641007475461</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.006202621297344</v>
+        <v>3.006202621297315</v>
       </c>
       <c r="V39" t="n">
-        <v>6.427454244498534</v>
+        <v>6.427454244498506</v>
       </c>
       <c r="W39" t="n">
-        <v>32.48311690610788</v>
+        <v>32.48311690610785</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.127700763123039</v>
+        <v>1.12770076312301</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>54.43481212260038</v>
+        <v>54.43481212260035</v>
       </c>
       <c r="V40" t="n">
-        <v>10.88754851354619</v>
+        <v>10.88754851354616</v>
       </c>
       <c r="W40" t="n">
-        <v>56.08924041843161</v>
+        <v>56.08924041843159</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.8657737069296</v>
+        <v>139.8657737069295</v>
       </c>
       <c r="C41" t="n">
-        <v>115.9840307102751</v>
+        <v>115.984030710275</v>
       </c>
       <c r="D41" t="n">
-        <v>103.5506929713236</v>
+        <v>103.5506929713235</v>
       </c>
       <c r="E41" t="n">
         <v>137.2574453907324</v>
       </c>
       <c r="F41" t="n">
-        <v>168.9777829691098</v>
+        <v>168.9777829691097</v>
       </c>
       <c r="G41" t="n">
         <v>184.6053369927482</v>
       </c>
       <c r="H41" t="n">
-        <v>112.6834961042983</v>
+        <v>112.6834961042982</v>
       </c>
       <c r="I41" t="n">
-        <v>6.349987645007303</v>
+        <v>6.349987645007218</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>15.92816527782631</v>
+        <v>15.92816527782623</v>
       </c>
       <c r="V41" t="n">
-        <v>86.6583169382483</v>
+        <v>86.65831693824822</v>
       </c>
       <c r="W41" t="n">
-        <v>103.6749971548632</v>
+        <v>103.6749971548631</v>
       </c>
       <c r="X41" t="n">
-        <v>125.5612476238024</v>
+        <v>125.5612476238023</v>
       </c>
       <c r="Y41" t="n">
-        <v>148.0641007475462</v>
+        <v>148.0641007475461</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.006202621297344</v>
+        <v>3.006202621297259</v>
       </c>
       <c r="V42" t="n">
-        <v>6.427454244498534</v>
+        <v>6.427454244498449</v>
       </c>
       <c r="W42" t="n">
-        <v>32.48311690610788</v>
+        <v>32.4831169061078</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.127700763123039</v>
+        <v>1.127700763122953</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.43481212260038</v>
+        <v>54.43481212260029</v>
       </c>
       <c r="V43" t="n">
-        <v>10.88754851354619</v>
+        <v>10.88754851354611</v>
       </c>
       <c r="W43" t="n">
-        <v>56.08924041843161</v>
+        <v>56.08924041843153</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,22 +3980,22 @@
         <v>115.9840307102751</v>
       </c>
       <c r="D44" t="n">
-        <v>103.5506929713236</v>
+        <v>103.5506929713235</v>
       </c>
       <c r="E44" t="n">
         <v>137.2574453907324</v>
       </c>
       <c r="F44" t="n">
-        <v>168.9777829691098</v>
+        <v>168.9777829691097</v>
       </c>
       <c r="G44" t="n">
-        <v>184.6053369927483</v>
+        <v>184.6053369927482</v>
       </c>
       <c r="H44" t="n">
         <v>112.6834961042983</v>
       </c>
       <c r="I44" t="n">
-        <v>6.349987645007303</v>
+        <v>6.349987645007246</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>15.92816527782631</v>
+        <v>15.92816527782626</v>
       </c>
       <c r="V44" t="n">
-        <v>86.6583169382483</v>
+        <v>86.65831693824825</v>
       </c>
       <c r="W44" t="n">
-        <v>103.6749971548632</v>
+        <v>103.6749971548631</v>
       </c>
       <c r="X44" t="n">
         <v>125.5612476238024</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.0641007475462</v>
+        <v>148.0641007475461</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.006202621297344</v>
+        <v>3.006202621297287</v>
       </c>
       <c r="V45" t="n">
-        <v>6.427454244498534</v>
+        <v>6.427454244498477</v>
       </c>
       <c r="W45" t="n">
-        <v>32.48311690610788</v>
+        <v>32.48311690610782</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.127700763123039</v>
+        <v>1.127700763122981</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.43481212260038</v>
+        <v>54.43481212260032</v>
       </c>
       <c r="V46" t="n">
-        <v>10.88754851354619</v>
+        <v>10.88754851354614</v>
       </c>
       <c r="W46" t="n">
-        <v>56.08924041843161</v>
+        <v>56.08924041843156</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.0582403668682</v>
+        <v>197.5463691369265</v>
       </c>
       <c r="C11" t="n">
-        <v>84.63469267214508</v>
+        <v>119.1228214422036</v>
       </c>
       <c r="D11" t="n">
-        <v>84.63469267214508</v>
+        <v>119.1228214422036</v>
       </c>
       <c r="E11" t="n">
-        <v>6.211144977422062</v>
+        <v>119.1228214422036</v>
       </c>
       <c r="F11" t="n">
-        <v>6.211144977422062</v>
+        <v>119.1228214422036</v>
       </c>
       <c r="G11" t="n">
-        <v>6.211144977422062</v>
+        <v>40.69927374748062</v>
       </c>
       <c r="H11" t="n">
-        <v>6.211144977422062</v>
+        <v>40.69927374748062</v>
       </c>
       <c r="I11" t="n">
         <v>6.211144977422062</v>
       </c>
       <c r="J11" t="n">
-        <v>27.03771189280523</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="K11" t="n">
-        <v>68.93601592505046</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="L11" t="n">
-        <v>117.4330774506968</v>
+        <v>208.4340446942645</v>
       </c>
       <c r="M11" t="n">
-        <v>194.2959965462948</v>
+        <v>275.9737881124965</v>
       </c>
       <c r="N11" t="n">
-        <v>271.1589156418928</v>
+        <v>275.9737881124965</v>
       </c>
       <c r="O11" t="n">
-        <v>307.2759933211047</v>
+        <v>275.9737881124965</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2759933211047</v>
+        <v>275.9737881124965</v>
       </c>
       <c r="Q11" t="n">
         <v>310.5572488711031</v>
@@ -5066,25 +5066,25 @@
         <v>310.5572488711031</v>
       </c>
       <c r="S11" t="n">
-        <v>289.5171379377588</v>
+        <v>289.5171379377587</v>
       </c>
       <c r="T11" t="n">
-        <v>289.5171379377588</v>
+        <v>273.3677384833054</v>
       </c>
       <c r="U11" t="n">
-        <v>245.3540822658629</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="V11" t="n">
-        <v>241.4817880615912</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="W11" t="n">
-        <v>163.0582403668682</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="X11" t="n">
-        <v>163.0582403668682</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.0582403668682</v>
+        <v>229.2046828114096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.211144977422062</v>
+        <v>35.59208028895051</v>
       </c>
       <c r="C12" t="n">
-        <v>6.211144977422062</v>
+        <v>54.31303504504577</v>
       </c>
       <c r="D12" t="n">
-        <v>6.211144977422062</v>
+        <v>54.31303504504577</v>
       </c>
       <c r="E12" t="n">
-        <v>6.211144977422062</v>
+        <v>54.31303504504577</v>
       </c>
       <c r="F12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="G12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="H12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="I12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="J12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="K12" t="n">
-        <v>6.211144977422062</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="L12" t="n">
-        <v>83.07406407302008</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="M12" t="n">
-        <v>159.9369831686181</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="N12" t="n">
-        <v>159.9369831686181</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="O12" t="n">
-        <v>159.9369831686181</v>
+        <v>77.83574528603262</v>
       </c>
       <c r="P12" t="n">
-        <v>159.9369831686181</v>
+        <v>154.6986643816306</v>
       </c>
       <c r="Q12" t="n">
-        <v>169.4995669522625</v>
+        <v>154.6986643816306</v>
       </c>
       <c r="R12" t="n">
-        <v>169.4995669522625</v>
+        <v>154.6986643816306</v>
       </c>
       <c r="S12" t="n">
-        <v>169.4995669522625</v>
+        <v>169.4995669522627</v>
       </c>
       <c r="T12" t="n">
-        <v>160.8953269878723</v>
+        <v>160.8953269878724</v>
       </c>
       <c r="U12" t="n">
-        <v>129.7847588478238</v>
+        <v>129.784758847824</v>
       </c>
       <c r="V12" t="n">
-        <v>95.21838098737013</v>
+        <v>95.21838098737021</v>
       </c>
       <c r="W12" t="n">
-        <v>34.33315195357365</v>
+        <v>34.3331519535737</v>
       </c>
       <c r="X12" t="n">
-        <v>23.3384978061822</v>
+        <v>23.33849780618223</v>
       </c>
       <c r="Y12" t="n">
         <v>6.211144977422062</v>
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.7343182843212</v>
+        <v>34.73431828432117</v>
       </c>
       <c r="C13" t="n">
-        <v>74.30563388728612</v>
+        <v>74.30563388728606</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9387349043001</v>
+        <v>74.30563388728606</v>
       </c>
       <c r="E13" t="n">
-        <v>134.9387349043001</v>
+        <v>138.4101788524008</v>
       </c>
       <c r="F13" t="n">
-        <v>201.7650462732555</v>
+        <v>205.2364902213562</v>
       </c>
       <c r="G13" t="n">
-        <v>201.7650462732555</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="H13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="I13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="J13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="K13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="L13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="M13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="N13" t="n">
-        <v>211.919309895763</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="O13" t="n">
-        <v>275.2982855624505</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="P13" t="n">
-        <v>275.2982855624505</v>
+        <v>242.5916966860592</v>
       </c>
       <c r="Q13" t="n">
-        <v>275.2982855624505</v>
+        <v>275.2982855624506</v>
       </c>
       <c r="R13" t="n">
-        <v>275.2982855624505</v>
+        <v>275.2982855624506</v>
       </c>
       <c r="S13" t="n">
         <v>246.0851940468206</v>
       </c>
       <c r="T13" t="n">
-        <v>228.5987685549505</v>
+        <v>228.5987685549506</v>
       </c>
       <c r="U13" t="n">
-        <v>150.1752208602275</v>
+        <v>150.1752208602276</v>
       </c>
       <c r="V13" t="n">
-        <v>111.103697273463</v>
+        <v>111.1036972734631</v>
       </c>
       <c r="W13" t="n">
-        <v>32.68014957874004</v>
+        <v>32.68014957874009</v>
       </c>
       <c r="X13" t="n">
-        <v>17.03242374572039</v>
+        <v>17.03242374572041</v>
       </c>
       <c r="Y13" t="n">
         <v>6.211144977422062</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>197.5463691369267</v>
+        <v>197.5463691369266</v>
       </c>
       <c r="C14" t="n">
-        <v>197.5463691369267</v>
+        <v>197.5463691369266</v>
       </c>
       <c r="D14" t="n">
-        <v>197.5463691369267</v>
+        <v>197.5463691369266</v>
       </c>
       <c r="E14" t="n">
-        <v>119.1228214422037</v>
+        <v>197.5463691369266</v>
       </c>
       <c r="F14" t="n">
-        <v>40.6992737474806</v>
+        <v>197.5463691369266</v>
       </c>
       <c r="G14" t="n">
-        <v>40.6992737474806</v>
+        <v>119.1228214422036</v>
       </c>
       <c r="H14" t="n">
         <v>40.6992737474806</v>
@@ -5276,19 +5276,19 @@
         <v>6.211144977422062</v>
       </c>
       <c r="J14" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="K14" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="L14" t="n">
-        <v>83.07406407302008</v>
+        <v>131.5711255986665</v>
       </c>
       <c r="M14" t="n">
-        <v>83.07406407302008</v>
+        <v>185.4390222988068</v>
       </c>
       <c r="N14" t="n">
-        <v>159.9369831686181</v>
+        <v>185.4390222988068</v>
       </c>
       <c r="O14" t="n">
         <v>221.5560999780188</v>
@@ -5309,19 +5309,19 @@
         <v>273.3677384833055</v>
       </c>
       <c r="U14" t="n">
-        <v>273.3677384833055</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="V14" t="n">
-        <v>273.3677384833055</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="W14" t="n">
-        <v>273.3677384833055</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="X14" t="n">
-        <v>273.3677384833055</v>
+        <v>229.2046828114096</v>
       </c>
       <c r="Y14" t="n">
-        <v>273.3677384833055</v>
+        <v>197.5463691369266</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="C15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="D15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="E15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="F15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="G15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="H15" t="n">
-        <v>15.77372876106645</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="I15" t="n">
-        <v>92.63664785666447</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="J15" t="n">
-        <v>92.63664785666447</v>
+        <v>6.211144977422062</v>
       </c>
       <c r="K15" t="n">
-        <v>92.63664785666447</v>
+        <v>45.14693716809772</v>
       </c>
       <c r="L15" t="n">
-        <v>169.4995669522625</v>
+        <v>45.14693716809772</v>
       </c>
       <c r="M15" t="n">
-        <v>169.4995669522625</v>
+        <v>45.14693716809772</v>
       </c>
       <c r="N15" t="n">
-        <v>169.4995669522625</v>
+        <v>45.14693716809772</v>
       </c>
       <c r="O15" t="n">
-        <v>169.4995669522625</v>
+        <v>105.9364463538088</v>
       </c>
       <c r="P15" t="n">
-        <v>169.4995669522625</v>
+        <v>105.9364463538088</v>
       </c>
       <c r="Q15" t="n">
         <v>169.4995669522625</v>
@@ -5419,37 +5419,37 @@
         <v>6.211144977422062</v>
       </c>
       <c r="E16" t="n">
-        <v>6.211144977422062</v>
+        <v>70.31568994253686</v>
       </c>
       <c r="F16" t="n">
-        <v>6.211144977422062</v>
+        <v>137.1420013114922</v>
       </c>
       <c r="G16" t="n">
-        <v>6.211144977422062</v>
+        <v>137.1420013114922</v>
       </c>
       <c r="H16" t="n">
-        <v>6.211144977422062</v>
+        <v>137.1420013114922</v>
       </c>
       <c r="I16" t="n">
-        <v>6.211144977422062</v>
+        <v>137.1420013114922</v>
       </c>
       <c r="J16" t="n">
-        <v>6.211144977422062</v>
+        <v>211.919309895763</v>
       </c>
       <c r="K16" t="n">
-        <v>6.211144977422062</v>
+        <v>211.919309895763</v>
       </c>
       <c r="L16" t="n">
-        <v>74.58505067538371</v>
+        <v>211.919309895763</v>
       </c>
       <c r="M16" t="n">
-        <v>74.58505067538371</v>
+        <v>211.919309895763</v>
       </c>
       <c r="N16" t="n">
-        <v>151.4479697709817</v>
+        <v>211.919309895763</v>
       </c>
       <c r="O16" t="n">
-        <v>214.8269454376693</v>
+        <v>275.2982855624505</v>
       </c>
       <c r="P16" t="n">
         <v>275.2982855624505</v>
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.5538677116619</v>
+        <v>206.5538677116616</v>
       </c>
       <c r="C17" t="n">
-        <v>193.99494070262</v>
+        <v>193.9949407026196</v>
       </c>
       <c r="D17" t="n">
-        <v>193.9949407026201</v>
+        <v>193.9949407026196</v>
       </c>
       <c r="E17" t="n">
-        <v>159.9477160365506</v>
+        <v>159.94771603655</v>
       </c>
       <c r="F17" t="n">
-        <v>93.85974634181707</v>
+        <v>93.85974634181652</v>
       </c>
       <c r="G17" t="n">
-        <v>15.43619864709346</v>
+        <v>15.43619864709351</v>
       </c>
       <c r="H17" t="n">
         <v>6.211144977422062</v>
       </c>
       <c r="I17" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="J17" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="K17" t="n">
-        <v>83.07406407302008</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="L17" t="n">
-        <v>83.07406407302008</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="M17" t="n">
         <v>159.9369831686181</v>
@@ -5528,13 +5528,13 @@
         <v>159.9369831686181</v>
       </c>
       <c r="O17" t="n">
-        <v>233.6943297755051</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="P17" t="n">
-        <v>233.6943297755051</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="Q17" t="n">
-        <v>233.6943297755051</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="R17" t="n">
         <v>233.6943297755051</v>
@@ -5552,13 +5552,13 @@
         <v>310.5572488711031</v>
       </c>
       <c r="W17" t="n">
-        <v>310.4316890897501</v>
+        <v>310.43168908975</v>
       </c>
       <c r="X17" t="n">
-        <v>288.1988056023978</v>
+        <v>288.1988056023976</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.2357674445972</v>
+        <v>243.235767444597</v>
       </c>
     </row>
     <row r="18">
@@ -5747,7 +5747,7 @@
         <v>6.211144977422062</v>
       </c>
       <c r="I20" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="J20" t="n">
         <v>83.07406407302008</v>
@@ -5756,34 +5756,34 @@
         <v>83.07406407302008</v>
       </c>
       <c r="L20" t="n">
+        <v>83.07406407302008</v>
+      </c>
+      <c r="M20" t="n">
+        <v>83.07406407302008</v>
+      </c>
+      <c r="N20" t="n">
+        <v>83.07406407302008</v>
+      </c>
+      <c r="O20" t="n">
+        <v>83.07406407302008</v>
+      </c>
+      <c r="P20" t="n">
+        <v>83.07406407302008</v>
+      </c>
+      <c r="Q20" t="n">
         <v>159.9369831686181</v>
       </c>
-      <c r="M20" t="n">
+      <c r="R20" t="n">
         <v>159.9369831686181</v>
       </c>
-      <c r="N20" t="n">
-        <v>159.9369831686181</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="S20" t="n">
         <v>236.7999022642161</v>
       </c>
-      <c r="P20" t="n">
-        <v>310.5572488711031</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>310.5572488711031</v>
-      </c>
-      <c r="R20" t="n">
-        <v>310.5572488711031</v>
-      </c>
-      <c r="S20" t="n">
-        <v>310.5572488711031</v>
-      </c>
       <c r="T20" t="n">
-        <v>310.5572488711031</v>
+        <v>293.8337965983586</v>
       </c>
       <c r="U20" t="n">
-        <v>310.5572488711031</v>
+        <v>293.8337965983586</v>
       </c>
       <c r="V20" t="n">
         <v>310.5572488711031</v>
@@ -5978,7 +5978,7 @@
         <v>93.85974634181656</v>
       </c>
       <c r="G23" t="n">
-        <v>15.43619864709352</v>
+        <v>15.43619864709351</v>
       </c>
       <c r="H23" t="n">
         <v>6.211144977422062</v>
@@ -5993,34 +5993,34 @@
         <v>6.211144977422062</v>
       </c>
       <c r="L23" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="M23" t="n">
-        <v>6.211144977422062</v>
+        <v>83.07406407302008</v>
       </c>
       <c r="N23" t="n">
-        <v>6.211144977422062</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="O23" t="n">
-        <v>6.211144977422062</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="P23" t="n">
-        <v>83.07406407302008</v>
+        <v>159.9369831686181</v>
       </c>
       <c r="Q23" t="n">
-        <v>140.1079584071626</v>
+        <v>233.6943297755051</v>
       </c>
       <c r="R23" t="n">
-        <v>140.1079584071626</v>
+        <v>233.6943297755051</v>
       </c>
       <c r="S23" t="n">
-        <v>140.1079584071626</v>
+        <v>233.6943297755051</v>
       </c>
       <c r="T23" t="n">
-        <v>216.9708775027606</v>
+        <v>233.6943297755051</v>
       </c>
       <c r="U23" t="n">
-        <v>293.8337965983586</v>
+        <v>310.5572488711031</v>
       </c>
       <c r="V23" t="n">
         <v>310.5572488711031</v>
@@ -6203,37 +6203,37 @@
         <v>1024.746717456738</v>
       </c>
       <c r="C26" t="n">
-        <v>886.0374913355495</v>
+        <v>886.0374913355491</v>
       </c>
       <c r="D26" t="n">
-        <v>759.8871922234027</v>
+        <v>759.8871922234024</v>
       </c>
       <c r="E26" t="n">
-        <v>599.6896684451865</v>
+        <v>599.689668445186</v>
       </c>
       <c r="F26" t="n">
-        <v>407.4513996383063</v>
+        <v>407.4513996383057</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4277227267407</v>
+        <v>199.4277227267408</v>
       </c>
       <c r="H26" t="n">
-        <v>64.05236994492257</v>
+        <v>64.05236994492262</v>
       </c>
       <c r="I26" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J26" t="n">
-        <v>171.780634066763</v>
+        <v>171.7806340667629</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3069990204769</v>
+        <v>377.3069990204768</v>
       </c>
       <c r="L26" t="n">
-        <v>636.5585904321133</v>
+        <v>636.5585904321131</v>
       </c>
       <c r="M26" t="n">
-        <v>930.1514053332567</v>
+        <v>930.1514053332564</v>
       </c>
       <c r="N26" t="n">
         <v>1218.242194273711</v>
@@ -6251,10 +6251,10 @@
         <v>1804.230073270928</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.710322628139</v>
+        <v>1789.710322628138</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.08128346424</v>
+        <v>1780.081283464239</v>
       </c>
       <c r="U26" t="n">
         <v>1742.438588082898</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>322.3791597550277</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="C27" t="n">
-        <v>322.3791597550277</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="D27" t="n">
-        <v>322.3791597550277</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="E27" t="n">
-        <v>148.8159558764422</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="F27" t="n">
-        <v>148.8159558764422</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="G27" t="n">
-        <v>148.8159558764422</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3209346884823</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="I27" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J27" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="K27" t="n">
         <v>75.02039365609423</v>
@@ -6315,40 +6315,40 @@
         <v>376.8634686070729</v>
       </c>
       <c r="N27" t="n">
-        <v>443.670222621278</v>
+        <v>576.80401588358</v>
       </c>
       <c r="O27" t="n">
-        <v>576.8040158835782</v>
+        <v>576.80401588358</v>
       </c>
       <c r="P27" t="n">
-        <v>661.5791205130076</v>
+        <v>661.5791205130093</v>
       </c>
       <c r="Q27" t="n">
-        <v>661.5791205130076</v>
+        <v>661.5791205130093</v>
       </c>
       <c r="R27" t="n">
-        <v>661.5791205130076</v>
+        <v>661.5791205130093</v>
       </c>
       <c r="S27" t="n">
-        <v>661.5791205130076</v>
+        <v>661.5791205130093</v>
       </c>
       <c r="T27" t="n">
-        <v>444.4615403127053</v>
+        <v>659.4952408391737</v>
       </c>
       <c r="U27" t="n">
-        <v>419.8713324632113</v>
+        <v>419.871332463213</v>
       </c>
       <c r="V27" t="n">
-        <v>391.8253148933122</v>
+        <v>391.8253148933138</v>
       </c>
       <c r="W27" t="n">
-        <v>337.4604461500702</v>
+        <v>122.4267456236051</v>
       </c>
       <c r="X27" t="n">
-        <v>332.9861522932333</v>
+        <v>117.9524517667681</v>
       </c>
       <c r="Y27" t="n">
-        <v>322.3791597550277</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309012</v>
       </c>
       <c r="C28" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309012</v>
       </c>
       <c r="D28" t="n">
-        <v>36.08460146541857</v>
+        <v>138.0220860308765</v>
       </c>
       <c r="E28" t="n">
-        <v>37.46402342931554</v>
+        <v>138.0220860308765</v>
       </c>
       <c r="F28" t="n">
-        <v>37.46402342931554</v>
+        <v>138.0220860308765</v>
       </c>
       <c r="G28" t="n">
-        <v>81.20983501479111</v>
+        <v>181.767897616352</v>
       </c>
       <c r="H28" t="n">
-        <v>81.20983501479111</v>
+        <v>228.4011629338986</v>
       </c>
       <c r="I28" t="n">
-        <v>81.20983501479111</v>
+        <v>228.4011629338986</v>
       </c>
       <c r="J28" t="n">
-        <v>81.20983501479111</v>
+        <v>228.4011629338986</v>
       </c>
       <c r="K28" t="n">
-        <v>81.20983501479111</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="L28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="M28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="N28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="O28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="P28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.8846971828248</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="R28" t="n">
-        <v>270.4705814106883</v>
+        <v>270.4705814106886</v>
       </c>
       <c r="S28" t="n">
-        <v>247.7778501856128</v>
+        <v>247.7778501856131</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8117849842973</v>
+        <v>236.8117849842976</v>
       </c>
       <c r="U28" t="n">
-        <v>160.2734867294468</v>
+        <v>160.273486729447</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7223234332369</v>
+        <v>127.722323433237</v>
       </c>
       <c r="W28" t="n">
-        <v>49.51288548562749</v>
+        <v>49.51288548562759</v>
       </c>
       <c r="X28" t="n">
-        <v>40.38551994316237</v>
+        <v>40.38551994316241</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>1024.746717456738</v>
       </c>
       <c r="C29" t="n">
-        <v>886.037491335549</v>
+        <v>886.0374913355489</v>
       </c>
       <c r="D29" t="n">
-        <v>759.8871922234023</v>
+        <v>759.8871922234022</v>
       </c>
       <c r="E29" t="n">
-        <v>599.689668445186</v>
+        <v>599.6896684451859</v>
       </c>
       <c r="F29" t="n">
-        <v>407.4513996383058</v>
+        <v>407.4513996383056</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4277227267403</v>
+        <v>199.4277227267401</v>
       </c>
       <c r="H29" t="n">
-        <v>64.05236994492257</v>
+        <v>64.05236994492256</v>
       </c>
       <c r="I29" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J29" t="n">
         <v>171.780634066763</v>
@@ -6488,10 +6488,10 @@
         <v>1804.230073270928</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.710322628139</v>
+        <v>1789.710322628138</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.08128346424</v>
+        <v>1780.081283464239</v>
       </c>
       <c r="U29" t="n">
         <v>1742.438588082897</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.8647177043868</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="C30" t="n">
-        <v>196.8647177043868</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="D30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="E30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="F30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="G30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="H30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="I30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J30" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="K30" t="n">
-        <v>36.08460146541857</v>
+        <v>75.02039365609423</v>
       </c>
       <c r="L30" t="n">
-        <v>154.7251213755848</v>
+        <v>75.02039365609423</v>
       </c>
       <c r="M30" t="n">
-        <v>321.9740561473009</v>
+        <v>237.198951517872</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4453272507071</v>
+        <v>443.6702226212783</v>
       </c>
       <c r="O30" t="n">
-        <v>661.5791205130074</v>
+        <v>576.8040158835786</v>
       </c>
       <c r="P30" t="n">
-        <v>661.5791205130074</v>
+        <v>661.579120513008</v>
       </c>
       <c r="Q30" t="n">
-        <v>655.4246234836614</v>
+        <v>661.579120513008</v>
       </c>
       <c r="R30" t="n">
-        <v>519.7255181449999</v>
+        <v>661.579120513008</v>
       </c>
       <c r="S30" t="n">
-        <v>519.7255181449999</v>
+        <v>661.579120513008</v>
       </c>
       <c r="T30" t="n">
-        <v>517.6416384711642</v>
+        <v>659.4952408391723</v>
       </c>
       <c r="U30" t="n">
-        <v>493.0514306216703</v>
+        <v>419.8713324632117</v>
       </c>
       <c r="V30" t="n">
-        <v>465.0054130517711</v>
+        <v>320.5644571301698</v>
       </c>
       <c r="W30" t="n">
-        <v>211.9460040994293</v>
+        <v>51.16588786046109</v>
       </c>
       <c r="X30" t="n">
-        <v>207.4717102425924</v>
+        <v>46.69159400362418</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.8647177043868</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="31">
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309017</v>
       </c>
       <c r="C31" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309017</v>
       </c>
       <c r="D31" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309017</v>
       </c>
       <c r="E31" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309017</v>
       </c>
       <c r="F31" t="n">
-        <v>36.08460146541857</v>
+        <v>70.99837989309017</v>
       </c>
       <c r="G31" t="n">
-        <v>36.08460146541857</v>
+        <v>81.31701844144467</v>
       </c>
       <c r="H31" t="n">
-        <v>36.08460146541857</v>
+        <v>127.9502837589914</v>
       </c>
       <c r="I31" t="n">
-        <v>36.08460146541857</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="J31" t="n">
-        <v>128.1588754741392</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="K31" t="n">
-        <v>128.1588754741392</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="L31" t="n">
-        <v>260.8846971828248</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="M31" t="n">
-        <v>260.8846971828248</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="N31" t="n">
-        <v>260.8846971828248</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="O31" t="n">
-        <v>260.8846971828248</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="P31" t="n">
-        <v>260.8846971828248</v>
+        <v>175.6522087697717</v>
       </c>
       <c r="Q31" t="n">
         <v>260.8846971828248</v>
       </c>
       <c r="R31" t="n">
-        <v>270.4705814106883</v>
+        <v>270.4705814106882</v>
       </c>
       <c r="S31" t="n">
         <v>247.7778501856128</v>
@@ -6655,16 +6655,16 @@
         <v>160.2734867294468</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7223234332369</v>
+        <v>127.7223234332368</v>
       </c>
       <c r="W31" t="n">
-        <v>49.51288548562749</v>
+        <v>49.51288548562748</v>
       </c>
       <c r="X31" t="n">
-        <v>40.38551994316237</v>
+        <v>40.38551994316236</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1024.746717456738</v>
       </c>
       <c r="C32" t="n">
-        <v>886.0374913355492</v>
+        <v>886.0374913355495</v>
       </c>
       <c r="D32" t="n">
-        <v>759.8871922234026</v>
+        <v>759.8871922234028</v>
       </c>
       <c r="E32" t="n">
-        <v>599.6896684451864</v>
+        <v>599.6896684451866</v>
       </c>
       <c r="F32" t="n">
-        <v>407.4513996383062</v>
+        <v>407.4513996383064</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4277227267407</v>
+        <v>199.4277227267408</v>
       </c>
       <c r="H32" t="n">
-        <v>64.05236994492256</v>
+        <v>64.0523699449227</v>
       </c>
       <c r="I32" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J32" t="n">
-        <v>171.780634066763</v>
+        <v>171.7806340667631</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3069990204768</v>
+        <v>377.306999020477</v>
       </c>
       <c r="L32" t="n">
-        <v>636.5585904321133</v>
+        <v>636.5585904321134</v>
       </c>
       <c r="M32" t="n">
-        <v>930.1514053332567</v>
+        <v>930.1514053332569</v>
       </c>
       <c r="N32" t="n">
         <v>1218.242194273711</v>
@@ -6716,10 +6716,10 @@
         <v>1465.113801838913</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.545849310583</v>
+        <v>1662.545849310582</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.70123835267</v>
+        <v>1785.701238352669</v>
       </c>
       <c r="R32" t="n">
         <v>1804.230073270928</v>
@@ -6731,16 +6731,16 @@
         <v>1780.081283464239</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.438588082897</v>
+        <v>1742.438588082898</v>
       </c>
       <c r="V32" t="n">
         <v>1633.351295064766</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.075436171266</v>
+        <v>1507.075436171267</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.692253571767</v>
+        <v>1358.692253571768</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.57891630182</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>249.2894144440432</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="C33" t="n">
-        <v>249.2894144440432</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="D33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="E33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="F33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="G33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="H33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="I33" t="n">
-        <v>88.50929820507491</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J33" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="K33" t="n">
         <v>75.02039365609423</v>
@@ -6786,43 +6786,43 @@
         <v>193.6609135662605</v>
       </c>
       <c r="M33" t="n">
-        <v>237.1989515178696</v>
+        <v>376.8634686070729</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6702226212758</v>
+        <v>583.3347397104792</v>
       </c>
       <c r="O33" t="n">
-        <v>576.8040158835761</v>
+        <v>661.5791205130073</v>
       </c>
       <c r="P33" t="n">
-        <v>661.5791205130055</v>
+        <v>661.5791205130073</v>
       </c>
       <c r="Q33" t="n">
-        <v>661.5791205130055</v>
+        <v>661.5791205130073</v>
       </c>
       <c r="R33" t="n">
-        <v>661.5791205130055</v>
+        <v>661.5791205130073</v>
       </c>
       <c r="S33" t="n">
-        <v>661.5791205130055</v>
+        <v>661.5791205130073</v>
       </c>
       <c r="T33" t="n">
-        <v>444.4615403127031</v>
+        <v>659.4952408391716</v>
       </c>
       <c r="U33" t="n">
-        <v>419.8713324632091</v>
+        <v>419.8713324632109</v>
       </c>
       <c r="V33" t="n">
-        <v>391.82531489331</v>
+        <v>176.791614366845</v>
       </c>
       <c r="W33" t="n">
-        <v>337.460446150068</v>
+        <v>51.16588786046103</v>
       </c>
       <c r="X33" t="n">
-        <v>332.9861522932312</v>
+        <v>46.69159400362415</v>
       </c>
       <c r="Y33" t="n">
-        <v>322.3791597550256</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="34">
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="C34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="D34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="E34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="F34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="G34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="H34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="I34" t="n">
-        <v>75.29839138655905</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="J34" t="n">
-        <v>75.29839138655905</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="K34" t="n">
-        <v>75.29839138655905</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="L34" t="n">
-        <v>75.29839138655905</v>
+        <v>36.08460146541856</v>
       </c>
       <c r="M34" t="n">
-        <v>75.29839138655905</v>
+        <v>175.6522087697715</v>
       </c>
       <c r="N34" t="n">
-        <v>270.4705814106881</v>
+        <v>175.6522087697715</v>
       </c>
       <c r="O34" t="n">
-        <v>270.4705814106881</v>
+        <v>175.6522087697715</v>
       </c>
       <c r="P34" t="n">
-        <v>270.4705814106881</v>
+        <v>175.6522087697715</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.4705814106881</v>
+        <v>260.8846971828246</v>
       </c>
       <c r="R34" t="n">
         <v>270.4705814106881</v>
@@ -6895,13 +6895,13 @@
         <v>127.7223234332368</v>
       </c>
       <c r="W34" t="n">
-        <v>49.51288548562744</v>
+        <v>49.51288548562742</v>
       </c>
       <c r="X34" t="n">
-        <v>40.38551994316234</v>
+        <v>40.38551994316233</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.08460146541857</v>
+        <v>36.08460146541856</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>867.6600956632428</v>
+        <v>867.6600956632431</v>
       </c>
       <c r="C35" t="n">
-        <v>750.5045090872071</v>
+        <v>750.5045090872075</v>
       </c>
       <c r="D35" t="n">
-        <v>645.9078495202136</v>
+        <v>645.907849520214</v>
       </c>
       <c r="E35" t="n">
-        <v>507.2639652871505</v>
+        <v>507.2639652871509</v>
       </c>
       <c r="F35" t="n">
-        <v>336.5793360254235</v>
+        <v>336.5793360254239</v>
       </c>
       <c r="G35" t="n">
-        <v>150.1092986590111</v>
+        <v>150.1092986590115</v>
       </c>
       <c r="H35" t="n">
-        <v>36.28758542234732</v>
+        <v>36.28758542234728</v>
       </c>
       <c r="I35" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J35" t="n">
-        <v>29.87345648799651</v>
+        <v>78.21535064235684</v>
       </c>
       <c r="K35" t="n">
-        <v>91.12306268502965</v>
+        <v>286.5410751190776</v>
       </c>
       <c r="L35" t="n">
-        <v>371.4993762148707</v>
+        <v>489.8873045635679</v>
       </c>
       <c r="M35" t="n">
-        <v>686.2169132342187</v>
+        <v>804.6048415829159</v>
       </c>
       <c r="N35" t="n">
-        <v>995.4324242928781</v>
+        <v>804.6048415829159</v>
       </c>
       <c r="O35" t="n">
-        <v>1263.428753976285</v>
+        <v>1072.601171266323</v>
       </c>
       <c r="P35" t="n">
-        <v>1481.985523566158</v>
+        <v>1291.157940856196</v>
       </c>
       <c r="Q35" t="n">
-        <v>1481.985523566158</v>
+        <v>1435.438052016488</v>
       </c>
       <c r="R35" t="n">
-        <v>1481.985523566158</v>
+        <v>1475.091609052951</v>
       </c>
       <c r="S35" t="n">
         <v>1481.985523566158</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="C36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="D36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="E36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="F36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="G36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="H36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="I36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="K36" t="n">
-        <v>72.21363201517201</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="L36" t="n">
-        <v>72.21363201517201</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="M36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="N36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="O36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="P36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="R36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="S36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="T36" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="U36" t="n">
-        <v>69.17706371083126</v>
+        <v>69.17706371083121</v>
       </c>
       <c r="V36" t="n">
-        <v>62.68468568608527</v>
+        <v>62.68468568608524</v>
       </c>
       <c r="W36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="C37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="D37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="E37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="F37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="G37" t="n">
-        <v>29.87345648799651</v>
+        <v>85.89254159537762</v>
       </c>
       <c r="H37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="I37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="J37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="K37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="L37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="M37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="N37" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="O37" t="n">
-        <v>153.6505290311291</v>
+        <v>153.650529031129</v>
       </c>
       <c r="P37" t="n">
-        <v>153.6505290311291</v>
+        <v>153.650529031129</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.6505290311291</v>
+        <v>153.650529031129</v>
       </c>
       <c r="R37" t="n">
-        <v>153.6505290311291</v>
+        <v>153.650529031129</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512067</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512067</v>
       </c>
       <c r="U37" t="n">
-        <v>97.52677864150944</v>
+        <v>97.52677864150938</v>
       </c>
       <c r="V37" t="n">
-        <v>86.52925489045268</v>
+        <v>86.52925489045265</v>
       </c>
       <c r="W37" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X37" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>867.6600956632432</v>
+        <v>867.6600956632433</v>
       </c>
       <c r="C38" t="n">
         <v>750.5045090872079</v>
@@ -7157,46 +7157,46 @@
         <v>645.9078495202143</v>
       </c>
       <c r="E38" t="n">
-        <v>507.2639652871511</v>
+        <v>507.2639652871509</v>
       </c>
       <c r="F38" t="n">
-        <v>336.579336025424</v>
+        <v>336.5793360254239</v>
       </c>
       <c r="G38" t="n">
-        <v>150.1092986590122</v>
+        <v>150.1092986590115</v>
       </c>
       <c r="H38" t="n">
-        <v>36.28758542234732</v>
+        <v>36.28758542234728</v>
       </c>
       <c r="I38" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J38" t="n">
-        <v>186.6942112075455</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="K38" t="n">
-        <v>413.345298279464</v>
+        <v>256.5245435599151</v>
       </c>
       <c r="L38" t="n">
-        <v>693.7216118093052</v>
+        <v>256.5245435599151</v>
       </c>
       <c r="M38" t="n">
-        <v>878.4426082019498</v>
+        <v>571.2420805792631</v>
       </c>
       <c r="N38" t="n">
-        <v>955.7788672564145</v>
+        <v>804.6048415829159</v>
       </c>
       <c r="O38" t="n">
-        <v>1223.775196939821</v>
+        <v>1072.601171266323</v>
       </c>
       <c r="P38" t="n">
-        <v>1442.331966529694</v>
+        <v>1291.157940856196</v>
       </c>
       <c r="Q38" t="n">
-        <v>1442.331966529694</v>
+        <v>1435.438052016488</v>
       </c>
       <c r="R38" t="n">
-        <v>1481.985523566158</v>
+        <v>1475.091609052951</v>
       </c>
       <c r="S38" t="n">
         <v>1481.985523566158</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="C39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="D39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="E39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="F39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="G39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="H39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="I39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="K39" t="n">
-        <v>57.34173192862459</v>
+        <v>68.80924867867216</v>
       </c>
       <c r="L39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="M39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="N39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="O39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="P39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="R39" t="n">
-        <v>57.34173192862459</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="S39" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="T39" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517192</v>
       </c>
       <c r="U39" t="n">
-        <v>69.17706371083126</v>
+        <v>69.17706371083121</v>
       </c>
       <c r="V39" t="n">
-        <v>62.68468568608527</v>
+        <v>62.68468568608524</v>
       </c>
       <c r="W39" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X39" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.34173192862459</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.87345648799651</v>
+        <v>85.9119570338728</v>
       </c>
       <c r="C40" t="n">
-        <v>29.87345648799651</v>
+        <v>85.9119570338728</v>
       </c>
       <c r="D40" t="n">
-        <v>29.87345648799651</v>
+        <v>85.9119570338728</v>
       </c>
       <c r="E40" t="n">
-        <v>29.87345648799651</v>
+        <v>85.9119570338728</v>
       </c>
       <c r="F40" t="n">
-        <v>29.87345648799651</v>
+        <v>88.77999532744873</v>
       </c>
       <c r="G40" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="H40" t="n">
-        <v>29.87345648799651</v>
+        <v>153.650529031129</v>
       </c>
       <c r="I40" t="n">
-        <v>30.07465128980847</v>
+        <v>153.650529031129</v>
       </c>
       <c r="J40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="K40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="L40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="M40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="N40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="O40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="P40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="R40" t="n">
-        <v>143.2736474167337</v>
+        <v>153.650529031129</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1345557368114</v>
+        <v>152.5114373512067</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512067</v>
       </c>
       <c r="U40" t="n">
-        <v>97.52677864150944</v>
+        <v>97.52677864150938</v>
       </c>
       <c r="V40" t="n">
-        <v>86.52925489045268</v>
+        <v>86.52925489045265</v>
       </c>
       <c r="W40" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X40" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867.6600956632428</v>
+        <v>867.6600956632435</v>
       </c>
       <c r="C41" t="n">
-        <v>750.5045090872071</v>
+        <v>750.5045090872079</v>
       </c>
       <c r="D41" t="n">
-        <v>645.9078495202136</v>
+        <v>645.9078495202145</v>
       </c>
       <c r="E41" t="n">
-        <v>507.2639652871505</v>
+        <v>507.2639652871515</v>
       </c>
       <c r="F41" t="n">
-        <v>336.5793360254235</v>
+        <v>336.5793360254245</v>
       </c>
       <c r="G41" t="n">
-        <v>150.1092986590111</v>
+        <v>150.1092986590122</v>
       </c>
       <c r="H41" t="n">
-        <v>36.28758542234732</v>
+        <v>36.28758542234723</v>
       </c>
       <c r="I41" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J41" t="n">
-        <v>186.6942112075455</v>
+        <v>124.080414497216</v>
       </c>
       <c r="K41" t="n">
-        <v>186.6942112075455</v>
+        <v>350.7315015691346</v>
       </c>
       <c r="L41" t="n">
-        <v>467.0705247373866</v>
+        <v>631.1078150989757</v>
       </c>
       <c r="M41" t="n">
-        <v>781.7880617567346</v>
+        <v>945.8253521183238</v>
       </c>
       <c r="N41" t="n">
-        <v>948.8849527432083</v>
+        <v>1023.161611172789</v>
       </c>
       <c r="O41" t="n">
-        <v>1216.881282426615</v>
+        <v>1291.157940856195</v>
       </c>
       <c r="P41" t="n">
-        <v>1435.438052016488</v>
+        <v>1291.157940856195</v>
       </c>
       <c r="Q41" t="n">
-        <v>1435.438052016488</v>
+        <v>1435.438052016487</v>
       </c>
       <c r="R41" t="n">
-        <v>1475.091609052952</v>
+        <v>1475.091609052951</v>
       </c>
       <c r="S41" t="n">
-        <v>1481.985523566158</v>
+        <v>1481.985523566157</v>
       </c>
       <c r="T41" t="n">
         <v>1493.672824399825</v>
@@ -7445,7 +7445,7 @@
         <v>1477.583768563637</v>
       </c>
       <c r="V41" t="n">
-        <v>1390.050115090658</v>
+        <v>1390.050115090659</v>
       </c>
       <c r="W41" t="n">
         <v>1285.327895742312</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="C42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="D42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="E42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="F42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="G42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="H42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="I42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="K42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="L42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="M42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="N42" t="n">
-        <v>53.1313203652937</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="O42" t="n">
-        <v>53.1313203652937</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="P42" t="n">
-        <v>53.1313203652937</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.1313203652937</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="R42" t="n">
-        <v>53.1313203652937</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="S42" t="n">
-        <v>53.1313203652937</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="T42" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517175</v>
       </c>
       <c r="U42" t="n">
-        <v>69.17706371083126</v>
+        <v>69.17706371083109</v>
       </c>
       <c r="V42" t="n">
-        <v>62.68468568608527</v>
+        <v>62.68468568608518</v>
       </c>
       <c r="W42" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y42" t="n">
-        <v>46.61292319711528</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="C43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="D43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="E43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="F43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="G43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="H43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="I43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="K43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="L43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="M43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="N43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="O43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="P43" t="n">
-        <v>117.8601238517548</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.2736474167337</v>
+        <v>136.2306670192543</v>
       </c>
       <c r="R43" t="n">
-        <v>143.2736474167337</v>
+        <v>153.6505290311287</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1345557368114</v>
+        <v>152.5114373512066</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512066</v>
       </c>
       <c r="U43" t="n">
-        <v>97.52677864150944</v>
+        <v>97.52677864150927</v>
       </c>
       <c r="V43" t="n">
-        <v>86.52925489045268</v>
+        <v>86.52925489045259</v>
       </c>
       <c r="W43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>867.6600956632432</v>
+        <v>867.6600956632429</v>
       </c>
       <c r="C44" t="n">
-        <v>750.5045090872079</v>
+        <v>750.5045090872077</v>
       </c>
       <c r="D44" t="n">
-        <v>645.9078495202143</v>
+        <v>645.9078495202141</v>
       </c>
       <c r="E44" t="n">
-        <v>507.263965287151</v>
+        <v>507.2639652871511</v>
       </c>
       <c r="F44" t="n">
-        <v>336.5793360254239</v>
+        <v>336.5793360254241</v>
       </c>
       <c r="G44" t="n">
-        <v>150.1092986590115</v>
+        <v>150.1092986590118</v>
       </c>
       <c r="H44" t="n">
-        <v>36.28758542234732</v>
+        <v>36.28758542234726</v>
       </c>
       <c r="I44" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="J44" t="n">
-        <v>186.6942112075455</v>
+        <v>186.6942112075456</v>
       </c>
       <c r="K44" t="n">
-        <v>413.345298279464</v>
+        <v>413.3452982794642</v>
       </c>
       <c r="L44" t="n">
-        <v>461.8423598051104</v>
+        <v>693.7216118093054</v>
       </c>
       <c r="M44" t="n">
-        <v>776.5598968244584</v>
+        <v>776.5598968244587</v>
       </c>
       <c r="N44" t="n">
         <v>1085.775407883118</v>
       </c>
       <c r="O44" t="n">
-        <v>1121.89248556233</v>
+        <v>1085.775407883118</v>
       </c>
       <c r="P44" t="n">
-        <v>1340.449255152203</v>
+        <v>1304.332177472991</v>
       </c>
       <c r="Q44" t="n">
-        <v>1475.091609052952</v>
+        <v>1448.612288633283</v>
       </c>
       <c r="R44" t="n">
-        <v>1475.091609052952</v>
+        <v>1488.265845669747</v>
       </c>
       <c r="S44" t="n">
-        <v>1481.985523566158</v>
+        <v>1488.265845669747</v>
       </c>
       <c r="T44" t="n">
         <v>1493.672824399825</v>
@@ -7682,7 +7682,7 @@
         <v>1477.583768563637</v>
       </c>
       <c r="V44" t="n">
-        <v>1390.050115090659</v>
+        <v>1390.050115090658</v>
       </c>
       <c r="W44" t="n">
         <v>1285.327895742312</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="C45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="D45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="E45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="F45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="G45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="H45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="I45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="J45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="K45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="L45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="M45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="N45" t="n">
-        <v>72.21363201517201</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="O45" t="n">
-        <v>72.21363201517201</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="P45" t="n">
-        <v>72.21363201517201</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.21363201517201</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="R45" t="n">
-        <v>72.21363201517201</v>
+        <v>29.89740220556261</v>
       </c>
       <c r="S45" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517184</v>
       </c>
       <c r="T45" t="n">
-        <v>72.21363201517201</v>
+        <v>72.21363201517184</v>
       </c>
       <c r="U45" t="n">
-        <v>69.17706371083126</v>
+        <v>69.17706371083115</v>
       </c>
       <c r="V45" t="n">
-        <v>62.68468568608527</v>
+        <v>62.68468568608521</v>
       </c>
       <c r="W45" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X45" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y45" t="n">
-        <v>40.60226521950582</v>
+        <v>29.8734564879965</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="C46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="D46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="E46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="F46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="G46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="H46" t="n">
-        <v>97.63144392374782</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="I46" t="n">
-        <v>97.63144392374782</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="J46" t="n">
-        <v>97.63144392374782</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="K46" t="n">
-        <v>122.939922685061</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="L46" t="n">
-        <v>122.939922685061</v>
+        <v>46.78284840616449</v>
       </c>
       <c r="M46" t="n">
-        <v>122.939922685061</v>
+        <v>122.9399226850607</v>
       </c>
       <c r="N46" t="n">
-        <v>122.939922685061</v>
+        <v>122.9399226850607</v>
       </c>
       <c r="O46" t="n">
-        <v>122.939922685061</v>
+        <v>122.9399226850607</v>
       </c>
       <c r="P46" t="n">
-        <v>122.939922685061</v>
+        <v>122.9399226850607</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.939922685061</v>
+        <v>122.9399226850607</v>
       </c>
       <c r="R46" t="n">
-        <v>153.6505290311291</v>
+        <v>153.6505290311288</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512066</v>
       </c>
       <c r="T46" t="n">
-        <v>152.5114373512068</v>
+        <v>152.5114373512066</v>
       </c>
       <c r="U46" t="n">
-        <v>97.52677864150944</v>
+        <v>97.52677864150932</v>
       </c>
       <c r="V46" t="n">
-        <v>86.52925489045268</v>
+        <v>86.52925489045262</v>
       </c>
       <c r="W46" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="X46" t="n">
-        <v>29.87345648799651</v>
+        <v>29.8734564879965</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.87345648799651</v>
+        <v>46.78284840616449</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>56.60237593961098</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>86.5383074094043</v>
       </c>
       <c r="L11" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>78.82083971873644</v>
+        <v>275.8316973832329</v>
       </c>
       <c r="N11" t="n">
-        <v>282.9226858483934</v>
+        <v>205.2833736306175</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>210.2766208125903</v>
       </c>
       <c r="P11" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.95028730992484</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>30.3234018984135</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,19 +8845,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>56.60237593961095</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>22.4094101018659</v>
       </c>
       <c r="L14" t="n">
-        <v>212.9815433453666</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6097343345137</v>
+        <v>262.0217512033423</v>
       </c>
       <c r="N14" t="n">
-        <v>76.49447901484027</v>
+        <v>205.2833736306175</v>
       </c>
       <c r="O14" t="n">
-        <v>66.089946109745</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>15.55440900532682</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.27519998224774</v>
+        <v>97.27519998224773</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,31 +9003,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>120.4656347564736</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N15" t="n">
         <v>102.0570190762325</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7442038384922</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>10.77975881785464</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9963,10 +9963,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>169.5385887875508</v>
+        <v>304.0171678403811</v>
       </c>
       <c r="O27" t="n">
-        <v>255.2227828913207</v>
+        <v>120.7442038384922</v>
       </c>
       <c r="P27" t="n">
         <v>206.3638740786793</v>
@@ -10191,13 +10191,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>132.0443905632665</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3045437566416</v>
+        <v>120.4656347564736</v>
       </c>
       <c r="M30" t="n">
-        <v>285.6621133614178</v>
+        <v>280.5405205230963</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10206,7 +10206,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>120.7324552610739</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10434,16 +10434,16 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>160.7016115229259</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
-        <v>255.2227828913207</v>
+        <v>199.7789319218539</v>
       </c>
       <c r="P33" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7324552610739</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>191.5357600782382</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
@@ -10595,7 +10595,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>205.2833736306175</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10659,25 +10659,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>132.0443905632665</v>
       </c>
       <c r="L36" t="n">
-        <v>120.4656347564736</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>26.5823194241668</v>
+        <v>159.4916494780434</v>
       </c>
       <c r="N36" t="n">
         <v>102.0570190762325</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>120.7442038384922</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
         <v>69.16996059133484</v>
@@ -10759,10 +10759,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>221.6575361947056</v>
       </c>
       <c r="M38" t="n">
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>226.7904938281824</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>120.4656347564736</v>
+        <v>123.9044058034431</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N39" t="n">
         <v>102.0570190762325</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>120.7442038384922</v>
       </c>
       <c r="P39" t="n">
-        <v>34.0839599639194</v>
+        <v>120.7324552610739</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>19.3303475779359</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>120.4656347564736</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>163.512057906346</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M43" t="n">
-        <v>80.64432824290218</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N43" t="n">
         <v>111.3378805152112</v>
@@ -11233,10 +11233,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>31.36390459232341</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11373,28 +11373,28 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>95.56956762394105</v>
+        <v>120.4656347564736</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>102.0570190762325</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7442038384922</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>120.7324552610739</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
         <v>115.6742602693208</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.6590335442802</v>
+        <v>136.317303006542</v>
       </c>
       <c r="C11" t="n">
-        <v>66.13797832984996</v>
+        <v>66.13797832984999</v>
       </c>
       <c r="D11" t="n">
         <v>131.3439528086742</v>
       </c>
       <c r="E11" t="n">
-        <v>87.41139301030729</v>
+        <v>165.0507052280831</v>
       </c>
       <c r="F11" t="n">
         <v>196.7710428064604</v>
       </c>
       <c r="G11" t="n">
-        <v>212.3985968300989</v>
+        <v>134.7592846123231</v>
       </c>
       <c r="H11" t="n">
-        <v>140.4767559416489</v>
+        <v>140.476755941649</v>
       </c>
       <c r="I11" t="n">
-        <v>34.14324748235795</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.98790545990872</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>110.61800551337</v>
+        <v>114.451576775599</v>
       </c>
       <c r="W11" t="n">
-        <v>53.82894477443801</v>
+        <v>131.4682569922138</v>
       </c>
       <c r="X11" t="n">
-        <v>153.354507461153</v>
+        <v>153.3545074611531</v>
       </c>
       <c r="Y11" t="n">
         <v>175.8573605848968</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.58875974217523</v>
+        <v>4.588759742175259</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.243188038006465</v>
+        <v>6.243188038006494</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.59587789136526</v>
+        <v>167.6590335442802</v>
       </c>
       <c r="C14" t="n">
         <v>143.7772905476257</v>
@@ -23501,16 +23501,16 @@
         <v>131.3439528086742</v>
       </c>
       <c r="E14" t="n">
-        <v>87.41139301030729</v>
+        <v>165.0507052280831</v>
       </c>
       <c r="F14" t="n">
-        <v>119.1317305886846</v>
+        <v>196.7710428064604</v>
       </c>
       <c r="G14" t="n">
-        <v>212.3985968300989</v>
+        <v>134.7592846123231</v>
       </c>
       <c r="H14" t="n">
-        <v>140.4767559416489</v>
+        <v>62.83744372387316</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>43.72142511517694</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>114.4515767755989</v>
@@ -23561,7 +23561,7 @@
         <v>153.354507461153</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.8573605848968</v>
+        <v>144.515630047159</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.415331803648854</v>
+        <v>3.415331803648911</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1288495.707289541</v>
+        <v>1288495.70728954</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352772.7980705838</v>
+        <v>352772.798070584</v>
       </c>
       <c r="C2" t="n">
-        <v>352772.7980705838</v>
+        <v>352772.798070584</v>
       </c>
       <c r="D2" t="n">
         <v>352772.7980705838</v>
       </c>
       <c r="E2" t="n">
-        <v>304159.1518551342</v>
+        <v>304159.1518551341</v>
       </c>
       <c r="F2" t="n">
-        <v>304159.1518551342</v>
+        <v>304159.1518551341</v>
       </c>
       <c r="G2" t="n">
-        <v>353378.6753787861</v>
+        <v>353378.6753787859</v>
       </c>
       <c r="H2" t="n">
         <v>353378.6753787859</v>
@@ -26338,22 +26338,22 @@
         <v>353487.4195434144</v>
       </c>
       <c r="K2" t="n">
-        <v>353487.4195434144</v>
+        <v>353487.4195434142</v>
       </c>
       <c r="L2" t="n">
+        <v>353487.4195434143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>353487.4195434141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>353487.419543414</v>
+      </c>
+      <c r="O2" t="n">
+        <v>353487.4195434146</v>
+      </c>
+      <c r="P2" t="n">
         <v>353487.4195434142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>353487.4195434142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>353487.4195434141</v>
-      </c>
-      <c r="O2" t="n">
-        <v>353487.4195434141</v>
-      </c>
-      <c r="P2" t="n">
-        <v>353487.4195434143</v>
       </c>
     </row>
     <row r="3">
@@ -26390,19 +26390,19 @@
         <v>162934.1616868392</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
         <v>105075.1622469394</v>
       </c>
       <c r="M3" t="n">
-        <v>17070.48251976125</v>
+        <v>17070.48251976132</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65231.52857002228</v>
+        <v>65231.52857002226</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,25 +26427,25 @@
         <v>398734.2256465754</v>
       </c>
       <c r="F4" t="n">
-        <v>398734.2256465755</v>
+        <v>398734.2256465754</v>
       </c>
       <c r="G4" t="n">
         <v>468289.1182401559</v>
       </c>
       <c r="H4" t="n">
-        <v>468289.118240156</v>
+        <v>468289.1182401559</v>
       </c>
       <c r="I4" t="n">
-        <v>468289.118240156</v>
+        <v>468289.1182401559</v>
       </c>
       <c r="J4" t="n">
-        <v>471335.6032009607</v>
+        <v>471335.6032009606</v>
       </c>
       <c r="K4" t="n">
         <v>471335.6032009606</v>
       </c>
       <c r="L4" t="n">
-        <v>471335.6032009607</v>
+        <v>471335.6032009606</v>
       </c>
       <c r="M4" t="n">
         <v>470407.749698506</v>
@@ -26457,7 +26457,7 @@
         <v>470407.749698506</v>
       </c>
       <c r="P4" t="n">
-        <v>470407.749698506</v>
+        <v>470407.7496985059</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>24341.87214211766</v>
       </c>
       <c r="G5" t="n">
-        <v>35383.8269107901</v>
+        <v>35383.82691079009</v>
       </c>
       <c r="H5" t="n">
         <v>35383.82691079009</v>
@@ -26491,13 +26491,13 @@
         <v>35383.82691079009</v>
       </c>
       <c r="J5" t="n">
-        <v>47588.37764056897</v>
+        <v>47588.37764056896</v>
       </c>
       <c r="K5" t="n">
-        <v>47588.37764056897</v>
+        <v>47588.37764056896</v>
       </c>
       <c r="L5" t="n">
-        <v>47588.37764056897</v>
+        <v>47588.37764056896</v>
       </c>
       <c r="M5" t="n">
         <v>44661.78045142046</v>
@@ -26506,7 +26506,7 @@
         <v>44661.78045142046</v>
       </c>
       <c r="O5" t="n">
-        <v>44661.78045142046</v>
+        <v>44661.78045142047</v>
       </c>
       <c r="P5" t="n">
         <v>44661.78045142046</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184232.547666296</v>
+        <v>-184237.014050501</v>
       </c>
       <c r="C6" t="n">
-        <v>-184232.547666296</v>
+        <v>-184237.014050501</v>
       </c>
       <c r="D6" t="n">
-        <v>-184232.547666296</v>
+        <v>-184237.0140505012</v>
       </c>
       <c r="E6" t="n">
-        <v>-390794.410013724</v>
+        <v>-391102.7116867758</v>
       </c>
       <c r="F6" t="n">
-        <v>-118916.945933559</v>
+        <v>-119225.2476066107</v>
       </c>
       <c r="G6" t="n">
-        <v>-255369.4320190994</v>
+        <v>-255370.1116701284</v>
       </c>
       <c r="H6" t="n">
-        <v>-150294.2697721601</v>
+        <v>-150294.949423189</v>
       </c>
       <c r="I6" t="n">
-        <v>-150294.2697721601</v>
+        <v>-150294.9494231889</v>
       </c>
       <c r="J6" t="n">
-        <v>-328370.7229849545</v>
+        <v>-328370.7229849543</v>
       </c>
       <c r="K6" t="n">
-        <v>-165436.5612981152</v>
+        <v>-165436.5612981153</v>
       </c>
       <c r="L6" t="n">
-        <v>-270511.7235450549</v>
+        <v>-270511.7235450546</v>
       </c>
       <c r="M6" t="n">
-        <v>-178652.5931262735</v>
+        <v>-178652.5931262737</v>
       </c>
       <c r="N6" t="n">
-        <v>-161582.1106065123</v>
+        <v>-161582.1106065124</v>
       </c>
       <c r="O6" t="n">
-        <v>-226813.6391765345</v>
+        <v>-226813.6391765342</v>
       </c>
       <c r="P6" t="n">
         <v>-161582.1106065122</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="F2" t="n">
         <v>206.4282068335531</v>
@@ -26707,7 +26707,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="K2" t="n">
         <v>212.8833635212021</v>
@@ -26722,10 +26722,10 @@
         <v>234.2214666709037</v>
       </c>
       <c r="O2" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="P2" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
     </row>
     <row r="3">
@@ -26811,13 +26811,13 @@
         <v>77.63931221777578</v>
       </c>
       <c r="J4" t="n">
-        <v>451.0575183177321</v>
+        <v>451.057518317732</v>
       </c>
       <c r="K4" t="n">
-        <v>451.0575183177321</v>
+        <v>451.057518317732</v>
       </c>
       <c r="L4" t="n">
-        <v>451.0575183177321</v>
+        <v>451.057518317732</v>
       </c>
       <c r="M4" t="n">
         <v>373.4182060999563</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3439528086743</v>
+        <v>131.3439528086742</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.53941071252785</v>
+        <v>81.53941071252777</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3439528086743</v>
+        <v>131.3439528086742</v>
       </c>
       <c r="M2" t="n">
-        <v>21.33810314970157</v>
+        <v>21.33810314970165</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.53941071252785</v>
+        <v>81.53941071252783</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>373.4182060999563</v>
+        <v>373.4182060999562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3439528086743</v>
+        <v>131.3439528086742</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.53941071252785</v>
+        <v>81.53941071252777</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,40 +28087,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="C11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="D11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="E11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="F11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="G11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="H11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="I11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="K11" t="n">
-        <v>47.60249390355694</v>
+        <v>206.428206833553</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>206.4282068335531</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.45705294375914</v>
+        <v>13.45705294375913</v>
       </c>
       <c r="Q11" t="n">
-        <v>206.4282068335531</v>
+        <v>123.4167692954639</v>
       </c>
       <c r="R11" t="n">
-        <v>194.1673686542739</v>
+        <v>206.428206833553</v>
       </c>
       <c r="S11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="T11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="U11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="V11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="X11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>206.428206833553</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>206.428206833553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>182.5837524946625</v>
       </c>
       <c r="G12" t="n">
         <v>148.738521363376</v>
@@ -28190,16 +28190,16 @@
         <v>113.7154540431161</v>
       </c>
       <c r="J12" t="n">
-        <v>51.90044977225978</v>
+        <v>133.6074406728447</v>
       </c>
       <c r="K12" t="n">
         <v>132.0443905632665</v>
       </c>
       <c r="L12" t="n">
-        <v>198.1049469742494</v>
+        <v>120.4656347564736</v>
       </c>
       <c r="M12" t="n">
-        <v>194.3631076279652</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N12" t="n">
         <v>102.0570190762325</v>
@@ -28208,34 +28208,34 @@
         <v>120.7442038384922</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7324552610739</v>
+        <v>198.3717674788496</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.8822100509175</v>
+        <v>142.2230345118827</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3421142852749</v>
+        <v>163.8401563230108</v>
       </c>
       <c r="S12" t="n">
-        <v>191.477800196551</v>
+        <v>206.428206833553</v>
       </c>
       <c r="T12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="U12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="V12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="W12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="X12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="C13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="D13" t="n">
-        <v>206.4282068335531</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>206.428206833553</v>
       </c>
       <c r="F13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6956750510247</v>
+        <v>206.428206833553</v>
       </c>
       <c r="H13" t="n">
-        <v>176.0358870615665</v>
+        <v>165.7790551196398</v>
       </c>
       <c r="I13" t="n">
         <v>164.6996008840502</v>
       </c>
       <c r="J13" t="n">
-        <v>119.8790463406762</v>
+        <v>141.6753307178009</v>
       </c>
       <c r="K13" t="n">
         <v>135.6074278494994</v>
       </c>
       <c r="L13" t="n">
-        <v>31.39360375551144</v>
+        <v>136.6772103544387</v>
       </c>
       <c r="M13" t="n">
         <v>140.0916969039324</v>
       </c>
       <c r="N13" t="n">
-        <v>15.73973723420302</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O13" t="n">
-        <v>206.4282068335531</v>
+        <v>142.4090394934646</v>
       </c>
       <c r="P13" t="n">
         <v>145.3460450913498</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.1321779105375</v>
+        <v>159.826899342756</v>
       </c>
       <c r="R13" t="n">
         <v>203.2006521799258</v>
       </c>
       <c r="S13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="U13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="V13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="W13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.4282068335531</v>
+        <v>206.428206833553</v>
       </c>
     </row>
     <row r="14">
@@ -28348,25 +28348,25 @@
         <v>206.4282068335531</v>
       </c>
       <c r="J14" t="n">
-        <v>75.81666392388445</v>
+        <v>206.4282068335531</v>
       </c>
       <c r="K14" t="n">
-        <v>5.280974679066816</v>
+        <v>192.9177919233157</v>
       </c>
       <c r="L14" t="n">
-        <v>86.31530506711486</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>206.4282068335531</v>
-      </c>
-      <c r="O14" t="n">
-        <v>206.4282068335531</v>
-      </c>
-      <c r="P14" t="n">
-        <v>13.45705294375914</v>
       </c>
       <c r="Q14" t="n">
         <v>206.4282068335531</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>186.4096699367005</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
@@ -28424,34 +28424,34 @@
         <v>125.6767745376409</v>
       </c>
       <c r="I15" t="n">
-        <v>191.3547662608919</v>
+        <v>113.7154540431161</v>
       </c>
       <c r="J15" t="n">
-        <v>51.90044977225978</v>
+        <v>133.6074406728447</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0443905632665</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>198.1049469742494</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>116.7237954101895</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>182.1477484705236</v>
       </c>
       <c r="P15" t="n">
         <v>120.7324552610739</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.092952059052518</v>
+        <v>206.4282068335531</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3421142852749</v>
+        <v>163.8401563230108</v>
       </c>
       <c r="S15" t="n">
         <v>191.477800196551</v>
@@ -28491,10 +28491,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>206.4282068335531</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>206.4282068335531</v>
       </c>
       <c r="G16" t="n">
         <v>168.6956750510247</v>
@@ -28506,28 +28506,28 @@
         <v>164.6996008840502</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6753307178009</v>
+        <v>206.4282068335531</v>
       </c>
       <c r="K16" t="n">
         <v>135.6074278494994</v>
       </c>
       <c r="L16" t="n">
-        <v>205.741761564501</v>
+        <v>136.6772103544387</v>
       </c>
       <c r="M16" t="n">
         <v>140.0916969039324</v>
       </c>
       <c r="N16" t="n">
-        <v>204.71692996719</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O16" t="n">
         <v>206.4282068335531</v>
       </c>
       <c r="P16" t="n">
-        <v>206.4282068335531</v>
+        <v>145.3460450913498</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7899408817545</v>
+        <v>169.1321779105375</v>
       </c>
       <c r="R16" t="n">
         <v>203.2006521799258</v>
@@ -28582,7 +28582,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="I17" t="n">
-        <v>240.571454315911</v>
+        <v>318.2107665336868</v>
       </c>
       <c r="J17" t="n">
         <v>185.3912705553882</v>
@@ -28594,13 +28594,13 @@
         <v>221.6575361947056</v>
       </c>
       <c r="M17" t="n">
-        <v>285.2490465522895</v>
+        <v>207.6097343345137</v>
       </c>
       <c r="N17" t="n">
-        <v>205.2833736306176</v>
+        <v>205.2833736306175</v>
       </c>
       <c r="O17" t="n">
-        <v>284.7789911225772</v>
+        <v>210.2766208125903</v>
       </c>
       <c r="P17" t="n">
         <v>221.9826158388799</v>
@@ -28609,7 +28609,7 @@
         <v>226.064094598025</v>
       </c>
       <c r="R17" t="n">
-        <v>236.7516087319665</v>
+        <v>311.2539790419534</v>
       </c>
       <c r="S17" t="n">
         <v>227.257916657564</v>
@@ -28673,7 +28673,7 @@
         <v>120.4656347564736</v>
       </c>
       <c r="M18" t="n">
-        <v>116.7237954101895</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N18" t="n">
         <v>102.0570190762325</v>
@@ -28755,7 +28755,7 @@
         <v>140.0916969039324</v>
       </c>
       <c r="N19" t="n">
-        <v>127.0776177494143</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O19" t="n">
         <v>142.4090394934646</v>
@@ -28819,46 +28819,46 @@
         <v>337.7721596422273</v>
       </c>
       <c r="I20" t="n">
-        <v>240.571454315911</v>
+        <v>318.2107665336868</v>
       </c>
       <c r="J20" t="n">
-        <v>263.030582773164</v>
+        <v>185.3912705553882</v>
       </c>
       <c r="K20" t="n">
         <v>215.3272020251816</v>
       </c>
       <c r="L20" t="n">
-        <v>299.2968484124814</v>
+        <v>221.6575361947056</v>
       </c>
       <c r="M20" t="n">
         <v>207.6097343345137</v>
       </c>
       <c r="N20" t="n">
-        <v>205.2833736306176</v>
+        <v>205.2833736306175</v>
       </c>
       <c r="O20" t="n">
-        <v>287.9159330303661</v>
+        <v>210.2766208125903</v>
       </c>
       <c r="P20" t="n">
-        <v>296.4849861488668</v>
+        <v>221.9826158388799</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.064094598025</v>
+        <v>303.7034068158008</v>
       </c>
       <c r="R20" t="n">
         <v>236.7516087319665</v>
       </c>
       <c r="S20" t="n">
-        <v>227.257916657564</v>
+        <v>304.8972288753397</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4161122934618</v>
+        <v>280.0261065703734</v>
       </c>
       <c r="U20" t="n">
         <v>250.14963194873</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="W20" t="n">
         <v>337.7721596422273</v>
@@ -28910,7 +28910,7 @@
         <v>120.4656347564736</v>
       </c>
       <c r="M21" t="n">
-        <v>116.7237954101895</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N21" t="n">
         <v>102.0570190762325</v>
@@ -28992,7 +28992,7 @@
         <v>140.0916969039324</v>
       </c>
       <c r="N22" t="n">
-        <v>127.0776177494143</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O22" t="n">
         <v>142.4090394934646</v>
@@ -29065,22 +29065,22 @@
         <v>215.3272020251816</v>
       </c>
       <c r="L23" t="n">
-        <v>221.6575361947056</v>
+        <v>299.2968484124814</v>
       </c>
       <c r="M23" t="n">
         <v>207.6097343345137</v>
       </c>
       <c r="N23" t="n">
-        <v>205.2833736306176</v>
+        <v>282.9226858483933</v>
       </c>
       <c r="O23" t="n">
-        <v>210.2766208125904</v>
+        <v>210.2766208125903</v>
       </c>
       <c r="P23" t="n">
-        <v>299.6219280566557</v>
+        <v>221.9826158388799</v>
       </c>
       <c r="Q23" t="n">
-        <v>283.6740888749366</v>
+        <v>300.5664649080119</v>
       </c>
       <c r="R23" t="n">
         <v>236.7516087319665</v>
@@ -29089,13 +29089,13 @@
         <v>227.257916657564</v>
       </c>
       <c r="T23" t="n">
-        <v>300.0554245112376</v>
+        <v>222.4161122934618</v>
       </c>
       <c r="U23" t="n">
         <v>327.7889441665058</v>
       </c>
       <c r="V23" t="n">
-        <v>337.7721596422273</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.7721596422273</v>
@@ -29147,7 +29147,7 @@
         <v>120.4656347564736</v>
       </c>
       <c r="M24" t="n">
-        <v>116.7237954101895</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N24" t="n">
         <v>102.0570190762325</v>
@@ -29229,7 +29229,7 @@
         <v>140.0916969039324</v>
       </c>
       <c r="N25" t="n">
-        <v>127.0776177494143</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O25" t="n">
         <v>142.4090394934646</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.8833635212022</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8833635212025</v>
+        <v>212.883363521202</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29369,13 +29369,13 @@
         <v>148.738521363376</v>
       </c>
       <c r="H27" t="n">
-        <v>121.2267035615606</v>
+        <v>125.6767745376409</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1539698908331</v>
       </c>
       <c r="J27" t="n">
-        <v>51.90044977225978</v>
+        <v>51.90044977225977</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.092952059052518</v>
+        <v>6.092952059052511</v>
       </c>
       <c r="R27" t="n">
         <v>134.3421142852749</v>
@@ -29405,22 +29405,22 @@
         <v>191.477800196551</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.883363521202</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8833635212021</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8833635212021</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8833635212021</v>
+        <v>142.3351143356896</v>
       </c>
     </row>
     <row r="28">
@@ -29430,25 +29430,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.883363521202</v>
       </c>
       <c r="C28" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>212.883363521202</v>
       </c>
       <c r="E28" t="n">
-        <v>143.0694967313128</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7790551196398</v>
+        <v>212.883363521202</v>
       </c>
       <c r="I28" t="n">
         <v>164.6996008840502</v>
@@ -29457,49 +29457,49 @@
         <v>119.8790463406762</v>
       </c>
       <c r="K28" t="n">
-        <v>66.43746725816455</v>
+        <v>108.9318293559322</v>
       </c>
       <c r="L28" t="n">
-        <v>212.8833635212021</v>
+        <v>31.39360375551144</v>
       </c>
       <c r="M28" t="n">
-        <v>24.41743663461164</v>
+        <v>24.41743663461163</v>
       </c>
       <c r="N28" t="n">
-        <v>15.73973723420302</v>
+        <v>15.73973723420301</v>
       </c>
       <c r="O28" t="n">
-        <v>36.75803968837278</v>
+        <v>36.75803968837277</v>
       </c>
       <c r="P28" t="n">
-        <v>57.8617920638512</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7899408817545</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8833635212021</v>
+        <v>203.2006521799258</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
     </row>
     <row r="29">
@@ -29542,7 +29542,7 @@
         <v>212.8833635212021</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8833635212021</v>
+        <v>212.883363521202</v>
       </c>
       <c r="N29" t="n">
         <v>212.8833635212021</v>
@@ -29557,7 +29557,7 @@
         <v>212.8833635212021</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8833635212025</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="S29" t="n">
         <v>212.8833635212021</v>
@@ -29594,7 +29594,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -29612,7 +29612,7 @@
         <v>107.1539698908331</v>
       </c>
       <c r="J30" t="n">
-        <v>51.90044977225978</v>
+        <v>51.90044977225977</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.092952059052511</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3421142852749</v>
       </c>
       <c r="S30" t="n">
         <v>191.477800196551</v>
@@ -29645,13 +29645,13 @@
         <v>212.8833635212021</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8833635212021</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8833635212021</v>
+        <v>142.3351143356908</v>
       </c>
       <c r="W30" t="n">
-        <v>16.17576871419323</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>212.8833635212021</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29682,37 +29682,37 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6956750510247</v>
+        <v>179.1185422715848</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7790551196398</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="I31" t="n">
-        <v>164.6996008840502</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="J31" t="n">
-        <v>212.8833635212021</v>
+        <v>119.8790463406762</v>
       </c>
       <c r="K31" t="n">
         <v>66.43746725816455</v>
       </c>
       <c r="L31" t="n">
-        <v>165.4600903299414</v>
+        <v>31.39360375551144</v>
       </c>
       <c r="M31" t="n">
-        <v>24.41743663461164</v>
+        <v>24.41743663461163</v>
       </c>
       <c r="N31" t="n">
-        <v>15.73973723420302</v>
+        <v>15.73973723420301</v>
       </c>
       <c r="O31" t="n">
-        <v>36.75803968837278</v>
+        <v>36.75803968837277</v>
       </c>
       <c r="P31" t="n">
-        <v>57.8617920638512</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.7899408817545</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="R31" t="n">
         <v>212.8833635212021</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.3916465397931</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29849,7 +29849,7 @@
         <v>107.1539698908331</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.90044977225977</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.092952059052518</v>
+        <v>6.092952059052511</v>
       </c>
       <c r="R33" t="n">
         <v>134.3421142852749</v>
@@ -29879,16 +29879,16 @@
         <v>191.477800196551</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8833635212021</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8833635212021</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8833635212021</v>
+        <v>142.3351143356915</v>
       </c>
       <c r="X33" t="n">
         <v>212.8833635212021</v>
@@ -29925,7 +29925,7 @@
         <v>165.7790551196398</v>
       </c>
       <c r="I34" t="n">
-        <v>204.309489693283</v>
+        <v>164.6996008840502</v>
       </c>
       <c r="J34" t="n">
         <v>119.8790463406762</v>
@@ -29937,22 +29937,22 @@
         <v>31.39360375551144</v>
       </c>
       <c r="M34" t="n">
-        <v>24.41743663461164</v>
+        <v>165.3948177501197</v>
       </c>
       <c r="N34" t="n">
+        <v>15.73973723420301</v>
+      </c>
+      <c r="O34" t="n">
+        <v>36.75803968837277</v>
+      </c>
+      <c r="P34" t="n">
+        <v>57.86179206385118</v>
+      </c>
+      <c r="Q34" t="n">
         <v>212.8833635212021</v>
       </c>
-      <c r="O34" t="n">
-        <v>36.75803968837278</v>
-      </c>
-      <c r="P34" t="n">
-        <v>57.8617920638512</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>126.7899408817545</v>
-      </c>
       <c r="R34" t="n">
-        <v>203.2006521799258</v>
+        <v>212.8833635212021</v>
       </c>
       <c r="S34" t="n">
         <v>212.8833635212021</v>
@@ -30007,19 +30007,19 @@
         <v>234.2214666709037</v>
       </c>
       <c r="J35" t="n">
-        <v>75.81666392388445</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="K35" t="n">
-        <v>67.14926376697909</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="L35" t="n">
-        <v>234.2214666709037</v>
+        <v>156.4133009281251</v>
       </c>
       <c r="M35" t="n">
         <v>234.2214666709037</v>
       </c>
       <c r="N35" t="n">
-        <v>234.2214666709037</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>234.2214666709037</v>
@@ -30028,13 +30028,13 @@
         <v>234.2214666709037</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.48398065040679</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1673686542739</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="S35" t="n">
-        <v>227.257916657564</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="T35" t="n">
         <v>234.2214666709037</v>
@@ -30083,25 +30083,25 @@
         <v>125.6767745376409</v>
       </c>
       <c r="I36" t="n">
-        <v>113.7154540431161</v>
+        <v>107.1539698908331</v>
       </c>
       <c r="J36" t="n">
         <v>133.6074406728447</v>
       </c>
       <c r="K36" t="n">
-        <v>174.8122446311205</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>120.4656347564736</v>
       </c>
       <c r="M36" t="n">
-        <v>90.14147598602266</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>120.7442038384922</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>120.7324552610739</v>
@@ -30110,7 +30110,7 @@
         <v>142.2230345118827</v>
       </c>
       <c r="R36" t="n">
-        <v>163.8401563230108</v>
+        <v>134.3421142852749</v>
       </c>
       <c r="S36" t="n">
         <v>191.477800196551</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>234.2018551168682</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30159,13 +30159,13 @@
         <v>168.6956750510247</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7790551196398</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="I37" t="n">
         <v>164.6996008840502</v>
       </c>
       <c r="J37" t="n">
-        <v>141.6753307178009</v>
+        <v>119.8790463406762</v>
       </c>
       <c r="K37" t="n">
         <v>66.43746725816455</v>
@@ -30174,19 +30174,19 @@
         <v>31.39360375551144</v>
       </c>
       <c r="M37" t="n">
-        <v>24.41743663461164</v>
+        <v>24.41743663461163</v>
       </c>
       <c r="N37" t="n">
-        <v>15.73973723420302</v>
+        <v>15.73973723420301</v>
       </c>
       <c r="O37" t="n">
-        <v>161.785385691537</v>
+        <v>36.75803968837277</v>
       </c>
       <c r="P37" t="n">
-        <v>145.3460450913498</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.1321779105375</v>
+        <v>126.7899408817545</v>
       </c>
       <c r="R37" t="n">
         <v>203.2006521799258</v>
@@ -30244,19 +30244,19 @@
         <v>234.2214666709037</v>
       </c>
       <c r="J38" t="n">
-        <v>234.2214666709037</v>
+        <v>185.3912705553882</v>
       </c>
       <c r="K38" t="n">
         <v>234.2214666709037</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>234.2214666709037</v>
       </c>
-      <c r="M38" t="n">
-        <v>102.9118296742337</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>214.2128404121855</v>
       </c>
       <c r="O38" t="n">
         <v>234.2214666709037</v>
@@ -30265,13 +30265,13 @@
         <v>234.2214666709037</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.48398065040679</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="R38" t="n">
         <v>234.2214666709037</v>
       </c>
       <c r="S38" t="n">
-        <v>227.257916657564</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="T38" t="n">
         <v>234.2214666709037</v>
@@ -30326,31 +30326,31 @@
         <v>133.6074406728447</v>
       </c>
       <c r="K39" t="n">
-        <v>132.0443905632665</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>116.7237954101895</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>120.7442038384922</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>86.64849529715447</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>142.2230345118827</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3421142852749</v>
+        <v>163.8401563230108</v>
       </c>
       <c r="S39" t="n">
-        <v>206.4999214960939</v>
+        <v>191.477800196551</v>
       </c>
       <c r="T39" t="n">
         <v>214.9464043982994</v>
@@ -30365,10 +30365,10 @@
         <v>234.2214666709037</v>
       </c>
       <c r="X39" t="n">
-        <v>234.2214666709037</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>234.2214666709037</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30390,19 +30390,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>141.8238905957961</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6956750510247</v>
+        <v>234.2214666709037</v>
       </c>
       <c r="H40" t="n">
         <v>165.7790551196398</v>
       </c>
       <c r="I40" t="n">
-        <v>164.9028279565875</v>
+        <v>164.6996008840502</v>
       </c>
       <c r="J40" t="n">
-        <v>234.2214666709037</v>
+        <v>119.8790463406762</v>
       </c>
       <c r="K40" t="n">
         <v>66.43746725816455</v>
@@ -30411,16 +30411,16 @@
         <v>31.39360375551144</v>
       </c>
       <c r="M40" t="n">
-        <v>24.41743663461164</v>
+        <v>140.0916969039324</v>
       </c>
       <c r="N40" t="n">
-        <v>127.0776177494143</v>
+        <v>127.0776177494142</v>
       </c>
       <c r="O40" t="n">
         <v>142.4090394934646</v>
       </c>
       <c r="P40" t="n">
-        <v>57.8617920638512</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7899408817545</v>
@@ -30432,7 +30432,7 @@
         <v>234.2214666709037</v>
       </c>
       <c r="T40" t="n">
-        <v>234.2214666709037</v>
+        <v>223.7397680705044</v>
       </c>
       <c r="U40" t="n">
         <v>234.2214666709037</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="C41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="D41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="E41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="F41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="G41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="H41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="I41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="J41" t="n">
-        <v>234.2214666709037</v>
+        <v>170.9752073675405</v>
       </c>
       <c r="K41" t="n">
-        <v>5.280974679066816</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="L41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="M41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="N41" t="n">
-        <v>90.66730498182726</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="P41" t="n">
-        <v>234.2214666709037</v>
+        <v>202.652268260944</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.48398065040679</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="R41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="S41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="T41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="U41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
     </row>
     <row r="42">
@@ -30557,10 +30557,10 @@
         <v>125.6767745376409</v>
       </c>
       <c r="I42" t="n">
-        <v>113.7154540431161</v>
+        <v>107.1539698908331</v>
       </c>
       <c r="J42" t="n">
-        <v>133.6074406728447</v>
+        <v>51.90044977225977</v>
       </c>
       <c r="K42" t="n">
         <v>132.0443905632665</v>
@@ -30569,40 +30569,40 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>116.7237954101895</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>108.6412586400491</v>
+        <v>102.0570190762325</v>
       </c>
       <c r="O42" t="n">
-        <v>120.7442038384922</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>120.7324552610739</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.092952059052518</v>
+        <v>142.2230345118827</v>
       </c>
       <c r="R42" t="n">
-        <v>163.8401563230108</v>
+        <v>134.3421142852749</v>
       </c>
       <c r="S42" t="n">
         <v>191.477800196551</v>
       </c>
       <c r="T42" t="n">
-        <v>234.2214666709037</v>
+        <v>214.9464043982994</v>
       </c>
       <c r="U42" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V42" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W42" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X42" t="n">
-        <v>234.2214666709037</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30648,37 +30648,37 @@
         <v>31.39360375551144</v>
       </c>
       <c r="M43" t="n">
-        <v>59.44736866103025</v>
+        <v>24.41743663461163</v>
       </c>
       <c r="N43" t="n">
-        <v>15.73973723420302</v>
+        <v>15.73973723420301</v>
       </c>
       <c r="O43" t="n">
-        <v>36.75803968837278</v>
+        <v>36.75803968837277</v>
       </c>
       <c r="P43" t="n">
-        <v>234.2214666709037</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q43" t="n">
-        <v>194.8024037337485</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="R43" t="n">
-        <v>203.2006521799258</v>
+        <v>220.7964723939405</v>
       </c>
       <c r="S43" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="T43" t="n">
-        <v>234.2214666709037</v>
+        <v>223.7397680705044</v>
       </c>
       <c r="U43" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V43" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W43" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="C44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="D44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="E44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="F44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="G44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="H44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="I44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="J44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="M44" t="n">
-        <v>234.2214666709037</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>178.9127162202669</v>
       </c>
       <c r="P44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="Q44" t="n">
-        <v>224.4863583279308</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1673686542739</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="S44" t="n">
-        <v>234.2214666709037</v>
+        <v>227.257916657564</v>
       </c>
       <c r="T44" t="n">
-        <v>234.2214666709037</v>
+        <v>227.8777069703082</v>
       </c>
       <c r="U44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.738521363376</v>
+        <v>148.7627089568771</v>
       </c>
       <c r="H45" t="n">
         <v>125.6767745376409</v>
@@ -30797,52 +30797,52 @@
         <v>107.1539698908331</v>
       </c>
       <c r="J45" t="n">
-        <v>133.6074406728447</v>
+        <v>51.90044977225977</v>
       </c>
       <c r="K45" t="n">
         <v>132.0443905632665</v>
       </c>
       <c r="L45" t="n">
-        <v>24.89606713253258</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>116.7237954101895</v>
+        <v>116.7237954101894</v>
       </c>
       <c r="N45" t="n">
-        <v>133.9876926072085</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>120.7442038384922</v>
       </c>
       <c r="P45" t="n">
-        <v>120.7324552610739</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.2230345118827</v>
+        <v>6.092952059052511</v>
       </c>
       <c r="R45" t="n">
         <v>163.8401563230108</v>
       </c>
       <c r="S45" t="n">
-        <v>191.477800196551</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="T45" t="n">
         <v>214.9464043982994</v>
       </c>
       <c r="U45" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V45" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W45" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>234.2214666709037</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>168.6956750510247</v>
       </c>
       <c r="H46" t="n">
-        <v>234.2214666709037</v>
+        <v>165.7790551196398</v>
       </c>
       <c r="I46" t="n">
         <v>164.6996008840502</v>
@@ -30879,49 +30879,49 @@
         <v>119.8790463406762</v>
       </c>
       <c r="K46" t="n">
-        <v>92.0015872190869</v>
+        <v>66.43746725816455</v>
       </c>
       <c r="L46" t="n">
-        <v>136.6772103544387</v>
+        <v>31.39360375551144</v>
       </c>
       <c r="M46" t="n">
-        <v>24.41743663461164</v>
+        <v>101.3437742900623</v>
       </c>
       <c r="N46" t="n">
-        <v>15.73973723420302</v>
+        <v>15.73973723420301</v>
       </c>
       <c r="O46" t="n">
-        <v>36.75803968837278</v>
+        <v>36.75803968837277</v>
       </c>
       <c r="P46" t="n">
-        <v>57.8617920638512</v>
+        <v>57.86179206385118</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7899408817545</v>
       </c>
       <c r="R46" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="S46" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="T46" t="n">
         <v>223.7397680705044</v>
       </c>
       <c r="U46" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="V46" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="W46" t="n">
-        <v>234.2214666709037</v>
+        <v>234.2214666709038</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.1412728141684</v>
+        <v>234.2214666709038</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H11" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I11" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J11" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K11" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L11" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M11" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N11" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O11" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P11" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R11" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S11" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H12" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I12" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J12" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K12" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L12" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M12" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N12" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O12" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P12" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R12" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S12" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I13" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J13" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K13" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L13" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M13" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N13" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O13" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P13" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q13" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R13" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S13" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H14" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I14" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J14" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K14" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L14" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M14" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N14" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O14" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P14" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R14" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S14" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H15" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I15" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J15" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K15" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L15" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M15" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N15" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O15" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P15" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R15" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S15" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I16" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J16" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K16" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L16" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M16" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N16" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O16" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P16" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q16" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R16" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S16" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H17" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I17" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J17" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K17" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L17" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M17" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N17" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O17" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P17" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R17" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S17" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H18" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I18" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J18" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K18" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L18" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M18" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N18" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O18" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P18" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R18" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S18" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32388,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I19" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J19" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K19" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L19" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M19" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N19" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O19" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P19" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q19" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R19" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S19" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H20" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I20" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J20" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K20" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L20" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M20" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N20" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O20" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P20" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R20" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S20" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H21" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I21" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J21" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K21" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L21" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M21" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N21" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O21" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P21" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R21" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S21" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,43 +32625,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I22" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J22" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K22" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L22" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M22" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N22" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O22" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P22" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q22" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R22" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S22" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H23" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I23" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J23" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K23" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L23" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M23" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N23" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O23" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P23" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R23" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S23" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H24" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I24" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J24" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K24" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L24" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M24" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N24" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O24" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P24" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R24" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S24" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,43 +32862,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I25" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J25" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K25" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L25" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M25" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N25" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O25" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P25" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q25" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R25" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S25" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H26" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I26" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J26" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K26" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L26" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M26" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N26" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O26" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P26" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R26" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S26" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H27" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I27" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J27" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K27" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L27" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M27" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N27" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O27" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P27" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R27" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S27" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,43 +33099,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I28" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J28" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K28" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L28" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M28" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N28" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O28" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P28" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q28" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R28" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S28" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H29" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I29" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J29" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K29" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L29" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M29" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N29" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O29" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P29" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R29" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S29" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H30" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I30" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J30" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K30" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L30" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M30" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N30" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O30" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P30" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R30" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S30" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I31" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J31" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K31" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L31" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M31" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N31" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O31" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P31" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q31" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R31" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S31" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H32" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I32" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J32" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K32" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L32" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M32" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N32" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O32" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P32" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R32" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S32" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H33" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I33" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J33" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K33" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L33" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M33" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N33" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O33" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P33" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R33" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S33" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I34" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J34" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K34" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L34" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M34" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N34" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O34" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P34" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q34" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R34" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S34" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H35" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I35" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J35" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K35" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L35" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M35" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N35" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O35" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P35" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R35" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S35" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T35" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H36" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I36" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J36" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K36" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L36" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M36" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N36" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O36" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P36" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R36" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S36" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I37" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J37" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K37" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L37" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M37" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N37" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O37" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P37" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q37" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R37" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S37" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H38" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I38" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J38" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K38" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L38" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M38" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N38" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O38" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P38" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R38" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S38" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T38" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H39" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I39" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J39" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K39" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L39" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M39" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N39" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O39" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P39" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R39" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S39" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I40" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J40" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K40" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L40" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M40" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N40" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O40" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P40" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q40" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R40" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S40" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H41" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I41" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J41" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K41" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L41" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M41" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N41" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O41" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P41" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R41" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S41" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H42" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I42" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J42" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K42" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L42" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M42" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N42" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O42" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P42" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R42" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S42" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I43" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J43" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K43" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L43" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M43" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N43" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O43" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P43" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q43" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R43" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S43" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4180884309597372</v>
+        <v>0.4180884309597373</v>
       </c>
       <c r="H44" t="n">
-        <v>4.28174814356641</v>
+        <v>4.281748143566411</v>
       </c>
       <c r="I44" t="n">
-        <v>16.11835423457528</v>
+        <v>16.11835423457529</v>
       </c>
       <c r="J44" t="n">
-        <v>35.48473296716902</v>
+        <v>35.48473296716904</v>
       </c>
       <c r="K44" t="n">
-        <v>53.18241624969471</v>
+        <v>53.18241624969473</v>
       </c>
       <c r="L44" t="n">
-        <v>65.97749006867878</v>
+        <v>65.9774900686788</v>
       </c>
       <c r="M44" t="n">
-        <v>73.412670202759</v>
+        <v>73.41267020275903</v>
       </c>
       <c r="N44" t="n">
-        <v>74.60056395722337</v>
+        <v>74.60056395722339</v>
       </c>
       <c r="O44" t="n">
-        <v>70.44319712186747</v>
+        <v>70.4431971218675</v>
       </c>
       <c r="P44" t="n">
-        <v>60.12163898254895</v>
+        <v>60.12163898254897</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.14884704880335</v>
+        <v>45.14884704880336</v>
       </c>
       <c r="R44" t="n">
-        <v>26.26274740127461</v>
+        <v>26.26274740127462</v>
       </c>
       <c r="S44" t="n">
-        <v>9.527190120495021</v>
+        <v>9.527190120495023</v>
       </c>
       <c r="T44" t="n">
-        <v>1.83018210652625</v>
+        <v>1.830182106526251</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03344707447677897</v>
+        <v>0.03344707447677898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2236970317158633</v>
+        <v>0.2236970317158634</v>
       </c>
       <c r="H45" t="n">
-        <v>2.160442385255838</v>
+        <v>2.160442385255839</v>
       </c>
       <c r="I45" t="n">
-        <v>7.701849556883892</v>
+        <v>7.701849556883894</v>
       </c>
       <c r="J45" t="n">
-        <v>21.13446386048865</v>
+        <v>21.13446386048866</v>
       </c>
       <c r="K45" t="n">
-        <v>36.12216498545149</v>
+        <v>36.12216498545151</v>
       </c>
       <c r="L45" t="n">
         <v>48.57070857497288</v>
       </c>
       <c r="M45" t="n">
-        <v>56.67972597467291</v>
+        <v>56.67972597467292</v>
       </c>
       <c r="N45" t="n">
-        <v>58.17986966543413</v>
+        <v>58.17986966543414</v>
       </c>
       <c r="O45" t="n">
-        <v>53.22321438372999</v>
+        <v>53.22321438373</v>
       </c>
       <c r="P45" t="n">
-        <v>42.71632178440903</v>
+        <v>42.71632178440904</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.55472987306354</v>
+        <v>28.55472987306355</v>
       </c>
       <c r="R45" t="n">
-        <v>13.88883851302527</v>
+        <v>13.88883851302528</v>
       </c>
       <c r="S45" t="n">
-        <v>4.15507425138895</v>
+        <v>4.155074251388951</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9016560181880628</v>
+        <v>0.9016560181880631</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0147169099813068</v>
+        <v>0.01471690998130681</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>1.667401774800125</v>
       </c>
       <c r="I46" t="n">
-        <v>5.639841585929253</v>
+        <v>5.639841585929255</v>
       </c>
       <c r="J46" t="n">
         <v>13.25908343826233</v>
       </c>
       <c r="K46" t="n">
-        <v>21.78874711855375</v>
+        <v>21.78874711855376</v>
       </c>
       <c r="L46" t="n">
         <v>27.88209470867201</v>
       </c>
       <c r="M46" t="n">
-        <v>29.39775951214573</v>
+        <v>29.39775951214574</v>
       </c>
       <c r="N46" t="n">
-        <v>28.69874649817024</v>
+        <v>28.69874649817025</v>
       </c>
       <c r="O46" t="n">
         <v>26.50793741778357</v>
       </c>
       <c r="P46" t="n">
-        <v>22.68211984861026</v>
+        <v>22.68211984861027</v>
       </c>
       <c r="Q46" t="n">
         <v>15.70392407738644</v>
       </c>
       <c r="R46" t="n">
-        <v>8.432483822250928</v>
+        <v>8.432483822250932</v>
       </c>
       <c r="S46" t="n">
-        <v>3.268312067783063</v>
+        <v>3.268312067783064</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8013076013865622</v>
+        <v>0.8013076013865624</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01022945874110506</v>
+        <v>0.01022945874110507</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03693627816482</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="K11" t="n">
-        <v>42.32151922449012</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="L11" t="n">
-        <v>48.98693083398621</v>
+        <v>48.98693083398624</v>
       </c>
       <c r="M11" t="n">
-        <v>77.63931221777578</v>
+        <v>68.22196304871929</v>
       </c>
       <c r="N11" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>36.48189664566864</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.314399545452906</v>
+        <v>34.93278864505714</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>29.67771243588732</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18.91005530918713</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>23.7603133747342</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35492,28 +35492,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="M12" t="n">
-        <v>77.63931221777578</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>9.659175539034733</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>14.95040663700203</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.81128616858499</v>
+        <v>28.81128616858496</v>
       </c>
       <c r="C13" t="n">
-        <v>39.97102586158073</v>
+        <v>39.9710258615807</v>
       </c>
       <c r="D13" t="n">
-        <v>61.24555658284237</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.75206562132806</v>
       </c>
       <c r="F13" t="n">
-        <v>67.50132461510643</v>
+        <v>67.5013246151064</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.73253178252834</v>
       </c>
       <c r="H13" t="n">
-        <v>10.25683194192677</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>64.01916734008846</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>33.03695846100142</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>77.63931221777578</v>
+        <v>48.98693083398624</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>54.41201686882859</v>
       </c>
       <c r="N14" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>62.24153213070773</v>
+        <v>36.48189664566867</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.659175539034736</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.32908302088451</v>
       </c>
       <c r="L15" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>61.40354463203143</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>64.20517232167036</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35787,10 +35787,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>64.75206562132809</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>67.50132461510643</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>75.53263493360681</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>69.06455121006228</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>64.01916734008846</v>
+        <v>64.01916734008847</v>
       </c>
       <c r="P16" t="n">
-        <v>61.08216174220325</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>74.50237030998689</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36115,46 +36115,46 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>77.63931221777578</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>77.63931221777578</v>
-      </c>
-      <c r="P20" t="n">
-        <v>74.50237030998689</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>57.60999427691162</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.63931221777578</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.60999427691162</v>
+        <v>74.50237030998689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.63931221777578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>77.63931221777578</v>
       </c>
       <c r="V23" t="n">
-        <v>16.89237603307527</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>207.6023888421352</v>
       </c>
       <c r="L26" t="n">
-        <v>261.8702943551883</v>
+        <v>261.8702943551882</v>
       </c>
       <c r="M26" t="n">
         <v>296.5583988900438</v>
@@ -36607,16 +36607,16 @@
         <v>291.0007969095502</v>
       </c>
       <c r="O26" t="n">
-        <v>249.3652601668707</v>
+        <v>249.3652601668708</v>
       </c>
       <c r="P26" t="n">
         <v>199.4263105774429</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3993828707953</v>
+        <v>124.3993828707952</v>
       </c>
       <c r="R26" t="n">
-        <v>18.71599486692852</v>
+        <v>18.71599486692807</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.3290830208845</v>
+        <v>39.32908302088451</v>
       </c>
       <c r="L27" t="n">
         <v>119.8389090001679</v>
@@ -36683,13 +36683,13 @@
         <v>185.0530858998105</v>
       </c>
       <c r="N27" t="n">
-        <v>67.48156971131826</v>
+        <v>201.9601487641486</v>
       </c>
       <c r="O27" t="n">
-        <v>134.4785790528285</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.63141881760541</v>
+        <v>85.63141881760544</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,25 +36726,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.26644285623391</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.70071327049129</v>
       </c>
       <c r="E28" t="n">
-        <v>1.393355519087845</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.18768847017735</v>
+        <v>44.18768847017729</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.10430840156225</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>42.49436209776767</v>
       </c>
       <c r="L28" t="n">
-        <v>181.4897597656906</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.682711341276216</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>137.0666995973176</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6023888421352</v>
+        <v>207.6023888421353</v>
       </c>
       <c r="L29" t="n">
         <v>261.8702943551883</v>
@@ -36853,7 +36853,7 @@
         <v>124.3993828707953</v>
       </c>
       <c r="R29" t="n">
-        <v>18.71599486692852</v>
+        <v>18.71599486692812</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.32908302088451</v>
       </c>
       <c r="L30" t="n">
-        <v>119.8389090001679</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>168.9383179512283</v>
+        <v>163.8167251129069</v>
       </c>
       <c r="N30" t="n">
-        <v>208.5568394983901</v>
+        <v>208.5568394983902</v>
       </c>
       <c r="O30" t="n">
-        <v>134.4785790528285</v>
+        <v>134.4785790528286</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.63141881760544</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.26644285623397</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36978,22 +36978,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>10.4228672205601</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.10430840156231</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.18376263715189</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00431718052587</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>134.0664865744299</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.09342263944752</v>
       </c>
       <c r="R31" t="n">
-        <v>9.682711341276216</v>
+        <v>9.682711341276219</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0666995973176</v>
+        <v>137.0666995973177</v>
       </c>
       <c r="K32" t="n">
         <v>207.6023888421353</v>
@@ -37081,16 +37081,16 @@
         <v>291.0007969095503</v>
       </c>
       <c r="O32" t="n">
-        <v>249.3652601668707</v>
+        <v>249.3652601668708</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4263105774429</v>
+        <v>199.426310577443</v>
       </c>
       <c r="Q32" t="n">
         <v>124.3993828707953</v>
       </c>
       <c r="R32" t="n">
-        <v>18.71599486692815</v>
+        <v>18.71599486692816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.3290830208845</v>
+        <v>39.32908302088451</v>
       </c>
       <c r="L33" t="n">
         <v>119.8389090001679</v>
       </c>
       <c r="M33" t="n">
-        <v>43.97781611273648</v>
+        <v>185.0530858998105</v>
       </c>
       <c r="N33" t="n">
-        <v>208.5568394983901</v>
+        <v>208.5568394983902</v>
       </c>
       <c r="O33" t="n">
-        <v>134.4785790528285</v>
+        <v>79.03472808336171</v>
       </c>
       <c r="P33" t="n">
-        <v>85.63141881760541</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.6098888092328</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>140.977381115508</v>
       </c>
       <c r="N34" t="n">
-        <v>197.1436262869991</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.09342263944755</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.682711341276248</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>48.83019611551549</v>
       </c>
       <c r="K35" t="n">
-        <v>61.86828908791227</v>
+        <v>210.4300247239604</v>
       </c>
       <c r="L35" t="n">
-        <v>283.2083975048899</v>
+        <v>205.4002317621113</v>
       </c>
       <c r="M35" t="n">
         <v>317.8965020397455</v>
       </c>
       <c r="N35" t="n">
-        <v>312.3389000592519</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>270.7033633165723</v>
+        <v>270.7033633165724</v>
       </c>
       <c r="P35" t="n">
         <v>220.7644137271446</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>145.737486020497</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.05409801662981</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.963550013339757</v>
       </c>
       <c r="T35" t="n">
-        <v>11.80535437744191</v>
+        <v>11.80535437744194</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>42.76785406785405</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>42.76785406785397</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>56.58493445190012</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.44241155126399</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>125.0273460031642</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>158.4048027470193</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>228.9404919918369</v>
+        <v>228.940491991837</v>
       </c>
       <c r="L38" t="n">
-        <v>283.2083975048899</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>186.5868650430754</v>
+        <v>317.8965020397455</v>
       </c>
       <c r="N38" t="n">
-        <v>78.11743338834818</v>
+        <v>235.7199606097504</v>
       </c>
       <c r="O38" t="n">
-        <v>270.7033633165723</v>
+        <v>270.7033633165724</v>
       </c>
       <c r="P38" t="n">
         <v>220.7644137271446</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>145.737486020497</v>
       </c>
       <c r="R38" t="n">
-        <v>40.05409801662977</v>
+        <v>40.05409801662981</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.963550013339757</v>
       </c>
       <c r="T38" t="n">
-        <v>11.80535437744191</v>
+        <v>11.80535437744194</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.32908302088451</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.438771046969457</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>15.02212129954285</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -37661,10 +37661,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>16.90855223143311</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>10.83718053687809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>56.60454600593565</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37686,19 +37686,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.89700837734943</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.52579161987903</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2032270725373388</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>114.3424203302275</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>10.48169860039932</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>158.4048027470193</v>
+        <v>95.15854344365604</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>228.940491991837</v>
       </c>
       <c r="L41" t="n">
-        <v>283.2083975048899</v>
+        <v>283.2083975048901</v>
       </c>
       <c r="M41" t="n">
-        <v>317.8965020397455</v>
+        <v>317.8965020397456</v>
       </c>
       <c r="N41" t="n">
-        <v>168.7847383701754</v>
+        <v>78.11743338834819</v>
       </c>
       <c r="O41" t="n">
-        <v>270.7033633165723</v>
+        <v>270.7033633165724</v>
       </c>
       <c r="P41" t="n">
-        <v>220.7644137271446</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>145.737486020497</v>
       </c>
       <c r="R41" t="n">
-        <v>40.05409801662977</v>
+        <v>40.05409801662987</v>
       </c>
       <c r="S41" t="n">
-        <v>6.963550013339727</v>
+        <v>6.963550013339814</v>
       </c>
       <c r="T41" t="n">
-        <v>11.80535437744191</v>
+        <v>11.805354377442</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.584239563816583</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>42.76785406785379</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>19.27506227260436</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37898,7 +37898,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>16.90855223143311</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>88.87542157955389</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.67022582321098</v>
+        <v>107.4315257891493</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>17.59582021401462</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.48169860039932</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>158.4048027470193</v>
       </c>
       <c r="K44" t="n">
-        <v>228.9404919918369</v>
+        <v>228.940491991837</v>
       </c>
       <c r="L44" t="n">
-        <v>48.98693083398621</v>
+        <v>283.20839750489</v>
       </c>
       <c r="M44" t="n">
-        <v>317.8965020397455</v>
+        <v>83.67503536884179</v>
       </c>
       <c r="N44" t="n">
-        <v>312.3389000592519</v>
+        <v>312.338900059252</v>
       </c>
       <c r="O44" t="n">
-        <v>36.48189664566864</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>220.7644137271446</v>
       </c>
       <c r="Q44" t="n">
-        <v>136.002377677524</v>
+        <v>145.737486020497</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.05409801662984</v>
       </c>
       <c r="S44" t="n">
-        <v>6.963550013339727</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>11.80535437744191</v>
+        <v>5.461594676846445</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.02418759350112567</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>31.93067353097595</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>42.74366647435275</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.83718053687809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>68.44241155126396</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>25.56411996092236</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.92633765545069</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>31.02081449097787</v>
+        <v>31.02081449097793</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -38217,7 +38217,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>17.08019385673535</v>
       </c>
     </row>
   </sheetData>
